--- a/deuChatbot/research_result/table_to_json(3000_200).xlsx
+++ b/deuChatbot/research_result/table_to_json(3000_200).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21104,6 +21104,6865 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 정보를 전혀 제공하지 않고 있으며, 다른 학과의 실기시험 정보를 나열하고 있습니다. 이는 원본 텍스트의 내용과 완전히 상반됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 디자인조형학과에 대한 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트의 내용과 모순됩니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 질문에 대한 답변으로 적절하지 않으며, 관련성이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문법적으로는 비교적 잘 작성되었으나, 내용의 적절성에 따라 점수가 낮아졌습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 여러 학과의 실기시험 정보를 나열하고 있지만, 디자인조형학과와의 관련성이 없기 때문에 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 디자인조형학과에 대한 정보가 전혀 포함되어 있지 않으며, 이는 원본 텍스트의 사실과 완전히 다릅니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 전반적으로 모든 품질 차원에서 매우 낮은 점수를 받았으며, 원본 텍스트와의 관계가 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 이해하기 쉬운 구조로 되어 있으나, 내용의 부적절성으로 인해 점수가 낮아졌습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.7161248102431359</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>현재 제공된 정보에는 '디자인조형학과'에 대한 실기시험 관련 내용이 없습니다. 다른 학과들에 대한 실기시험 내용은 다음과 같이 있습니다:
+1. **레저스포츠학과**:
+   - **실기종목**: 제자리 멀리뛰기, Z-런
+   - **배점(비율)**: 각각 350점 (35%)
+2. **태권도학과**:
+   - **실기종목**: 품새, 시범, 겨루기 중 하나 선택
+   - **기초실기**: 앞차기, 돌려차기, 옆차기 등 실시
+   - **응용실기**: 지정품새 또는 자유시연
+3. **나군 수능(일반학생전형) 모집단위**:
+   - **인문사회과학대학 법학과**: 수능 성적 기준으로 모집
+   - **상경대학 경영정보학과, e비즈니스학과**: 수능 성적 및 서류평가로 모집
+4. **나군 학생부종합(조기취업형계약학과전형)**:
+   - **정원외 서류평가 영역**: 공동체역량, 학업역량, 전공적합성 등 평가
+   - **정원외 면접평가 영역**: 지원동기 및 학업계획, 문제해결능력, 진로정보 탐색능력 등 평가
+따라서 디자인조형학과의 실기시험에 대한 정보를 찾지 못했습니다. 다른 학과나 관련 정보가 필요하시다면 알려주세요. 더 자세한 내용을 제공하기 위해 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시는 것도 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기종목, 준비물, 화지크기, 시간에 대한 정보를 정확하게 반영하고 있습니다. 그러나 실기주제에 대한 구체적인 내용(주제A와 주제B의 목록 및 조건)이 생략되어 있어 완전한 정보 전달에는 부족함이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 일관되게 전달하고 있습니다. 다만, 실기주제의 구체적인 내용이 생략되어 있어 일부 일관성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으나, 실기주제에 대한 구체적인 설명이 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있으나, 실기주제의 세부사항이 누락되어 있어 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 일부 세부사항의 누락으로 인해 완전한 정보 전달에는 한계가 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.8155825241250242</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 '기초디자인'과 '사고의 전환' 두 가지가 있습니다.
+준비물로는 볼펜, 연필, 색연필, 수채물감 등이 필요하며, 화지크기는 켄트지3절입니다. 시간은 각각 5시간씩이며, 실기주제는 당일 추첨을 통해 주어집니다.
+- 기초디자인: 주제A와 주제B에서 각 1개를 선정하여 연결된 주제를 표현합니다.
+- 사고의 전환: 주제A와 주제B에서 각 1개를 선정하여 연결된 주제를 표현합니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록과 관련된 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회에 대한 설명이 명확하게 이어집니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.9065159635755973</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에는 다음과 같은 대회들이 있습니다.
+1. 배드민턴(남)의 경우:
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (주니어팀 소속으로 출전한 대회만 인정)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남)의 경우:
+   -춘계한국고등학교축구연맹전
+   -추계한국고등학교축구연맹전
+   -대한축구협회장배전국고등학교축구대회
+   -문화체육관광부장관기전국고등학교축구대회
+   -문화체육관광부장관배전국고등학교축구대회
+   -백운기전국고등학교축구대회
+   -전국고등축구리그(권역별고교축구리그)
+   -전국고등축구리그왕중왕전
+   -무학기전국고등학교축구대회
+   -청룡기전국고등학교축구대회
+   -백록기전국고등학교축구대회
+   -금강대기전국고등학교축구대회
+   -대통령금배전국고등학교축구대회
+   -금석배전국고등학생축구대회
+   -부산MBC전국고등학생축구대회
+   -K리그 U18 챔피언십
+   -K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적을 기준으로 모집이 이루어지며, 각 종목별로 인정되는 대회가 다르므로 해당 정보를 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다. 주제A와 주제B의 내용이 일치하며, 시험 당일의 절차에 대한 설명도 정확합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다. 모든 내용이 원본과 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊습니다. 기초디자인 실기시험의 주제와 절차에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽습니다. 문장 구조가 매끄럽고 자연스럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 명확합니다. 각 주제와 절차가 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다. 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉽습니다. 정보가 잘 정리되어 있어 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.8278526371186987</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서 사용되는 주제는 다음과 같습니다:
+1. 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+2. 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+당일에는 이 두 가지 주제 중에서 각 1개씩 선정하여 연결된 주제를 작성해야 합니다. 예시로는 "잠자리와 저울"과 같은 주제가 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 사실을 정확하게 반영하고 있습니다. 그러나 추가된 정보(동점자 처리 기준이나 기타사항 등)는 원본 텍스트에 포함되어 있지 않으므로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일치하는 부분이 있지만, 추가된 내용이 원본과 일치하지 않거나 모호한 부분이 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 점수에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 추가된 정보가 원본과의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 출결 점수가 반영되지 않는다는 정보는 정확하지만, 추가된 내용이 원본 텍스트와 일치하지 않으므로 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보이지만, 일부 정보의 부정확성과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 다소 불필요하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하지만, 일부 추가 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.6605107919831154</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 나군 학생부교과 전형에서는 출결 점수가 반영되지 않습니다. 이전에 제공된 정보를 바탕으로, 나군 학생부교과 전형의 동점자 처리 기준이나 기타사항에서 출결 관련 내용을 찾을 수 없습니다. 만약 출결이 특정 전형에서 중요한 요소로 작용한다면 해당 정보가 추가되어야 하며, 현재 제공된 정보에는 그러한 내용이 포함되어 있지 않습니다. 더 자세한 정보를 원하시면 https://ipsi. deu. ac. kr/main. do 웹사이트를 참조해보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원문과 동일한 사실을 전달하고 있으며, 모집 인원과 전형에 대한 정보가 정확합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.9706162627195475</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학의 국어국문학과에서 가군 일반 학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 모집 인원 수에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 28명을 선발한다고 명시하고 있지만, 생성된 응답에서는 23명이라고 잘못 언급하고 있습니다. 또한 지원 인원과 경쟁률에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있습니다. 모집 인원 수가 다르며, 추가적인 정보(지원 인원, 경쟁률)는 원본 텍스트에 나타나지 않기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 전체적으로 관련성이 떨어집니다. 모집 인원에 대한 질문에 대한 답변은 포함되어 있으나, 잘못된 수치로 인해 신뢰성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 정보의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 문장 간의 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 모집 인원 수에 대한 정보가 잘못되어 있으며, 원본 텍스트의 사실을 정확하게 반영하지 않습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다. 그러나 유창성과 일관성 측면에서는 어느 정도 긍정적인 평가를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.7162083623225221</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>2024학년도 인문사회과학대학의 영어영문학과에서 다군 일반학생전형으로 모집인원은 23명입니다. 지원인원이 56명이었으며, 경쟁률은 2.43에 달했습니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보 전달이 효과적입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.8189505491238966</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반학생전형의 모집인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 영어영역 등급에 따른 점수를 정확하게 나열하고 있으며, 등급과 점수의 일치가 확인됩니다. 그러나 "이 점수들은 각 등급에 따라 다르게 적용됩니다."라는 문장은 원문에 포함되어 있지 않은 추가 정보로, 약간의 부정확성을 초래합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 대체로 일관성을 유지하고 있습니다. 등급과 점수의 나열 방식이 약간 다르지만, 정보의 본질은 일치합니다. 그러나 추가된 문장이 원문과의 일관성을 약간 떨어뜨립니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 주제와 관련이 깊습니다. 수능 영어영역 등급과 점수에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, "등급 1 :"과 같은 표현에서 공백이 불필요하게 포함되어 있어 약간의 어색함이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 점수와 등급의 나열이 명확합니다. 그러나 추가된 문장이 원문과의 연결성을 약간 약화시킵니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에 있는 점수와 등급을 정확하게 반영하고 있습니다. 그러나 추가된 문장이 원문에 없는 정보이므로 완전한 정확성은 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있습니다. 그러나 추가된 문장으로 인해 일부 점수가 낮아질 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있습니다. 그러나 추가된 문장이 원문과의 의미적 일치를 약간 떨어뜨립니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확합니다. 그러나 약간의 어색한 표현이 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.9403860382351834</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1 : 139점
+- 등급 2 : 131점
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점
+이 점수들은 각 등급에 따라 다르게 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형에 지원할 수 없다는 사실을 정확하게 반영하고 있습니다. 그러나 추가적인 정보(다른 전형에 대한 언급)는 원문에 포함되지 않은 내용이므로, 완전한 정확성은 다소 떨어집니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 예술고 학생의 지원 자격에 대해 설명하고 있습니다. 다만, 다른 전형에 대한 언급이 원문에 없기 때문에 약간의 일관성 저하가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 예술고 학생의 지원 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 추가된 정보가 원문과의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 예술고 학생의 지원 자격에 대한 정확한 정보를 제공하고 있지만, 다른 전형에 대한 언급이 원문에 없기 때문에 완전한 정확성은 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 정보의 추가로 인해 약간의 일관성과 정확성이 떨어질 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞아떨어지지만, 추가된 정보가 원문의 맥락과 완전히 일치하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.6506034742133141</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군의 농어촌학생전형에 지원할 수 없습니다. 전형 대상 학교와 모집 단과대학을 확인해보면, 농어촌학생전형은 상경대학, 의료·보건·생활대학, 공과대학, ICT융합공과대학의 관련 학과에서 모집하고 있습니다. 예술고는 해당되지 않습니다.
+만약 예술고 학생이 나군에 지원하려면, 나군의 평생학습자전형이나 성인학습자전형인 등 다른 전형을 통해 지원할 수 있을 것입니다. 그러나 이 경우에도 지원 자격과 제출 서류가 다르므로, 관련 정보를 확인하시기 바랍니다.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 를 참조하거나 문의해주세요.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 정확하게 반영하고 있습니다. 기록과 배점에 대한 정보는 일치하지만, 추가된 테이블 정보는 원본 텍스트에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일관된 정보를 제공하지만, 추가된 테이블 정보는 원본 텍스트와의 일관성을 떨어뜨립니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 핵심 정보를 잘 전달하고 있습니다. 따라서 관련성 점수는 높게 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있어 완벽한 유창성 점수는 아닙니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 추가된 테이블 정보가 약간의 혼란을 줄 수 있어 완벽한 점수는 아닙니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 정보로 인해 정확성에 약간의 문제가 발생합니다. 따라서 높은 점수를 부여합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있지만, 일관성과 정확성에서 약간의 문제가 있어 중간 이상의 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 의미를 약간 왜곡할 수 있어 완벽한 점수는 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 테이블 정보가 혼란을 줄 수 있어 완벽한 이해 가능성 점수는 아닙니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8770862179569607</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 218~221cm이며, 이 기록에 대한 배점은 275점입니다.
+이 정보는 다음과 같은 테이블에서 얻을 수 있습니다:
+| 등급 | 제자리 멀리뛰기(	cm) { 남 / 여 / 배점 } | Z-런 { 남 / 여 / 배점 } |
+|------|----------------------------------------|--------------------------|
+| 4    | 268～271 / 218~221 / 275              | 14.80~14.99 / 15.70~15.89 / 275 |
+따라서, 레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록은 218~221cm이고, 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 경기지도학과의 출결 반영 비율에 대한 명시가 없다고 주장하지만, 원본 텍스트에서는 명확하게 12%라고 언급하고 있습니다. 따라서 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 출결 반영 비율이 12%라고 명시하고 있지만, 생성된 응답은 이 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 경기지도학과의 출결 반영 비율에 대한 질문에 대한 답변으로 적절하지 않습니다. 원본 텍스트의 핵심 정보를 무시하고 다른 정보를 제공하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 읽을 수 있지만, 문장 구조가 다소 어색하고 불필요한 내용이 포함되어 있어 유창성이 떨어집니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 논리적인 흐름이 부족하고, 원본 텍스트와의 연결이 약합니다. 정보가 일관되게 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 경기지도학과의 출결 반영 비율에 대한 정확한 정보를 제공하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 부적절한 정보가 포함되어 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 이해할 수 있지만, 원본 텍스트와의 관련성이 낮아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.6272393179715136</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 경기지도학과의 출결 반영 비율에 대한 명시가 없습니다. 다른 모집단위들의 경우 서류와 면접의 반영 비율이 주어졌지만, 경기지도학과의 경우에는 해당 정보가 누락되어 있습니다.
+만약 경기지도학과의 출결 반영 비율을 알고 싶다면, 동의대학교 입학처 웹사이트 또는 관련 공지사항을 확인해 보시는 것이 좋습니다. 필요하다면 대학 관계자에게 직접 문의하시也是非常合理的的。请继续提问或提供更多信息。</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 물리치료학과가 모집이 없다고 잘못된 정보를 제공하고 있습니다. 원본 텍스트에서는 4명을 모집한다고 명시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상반된 내용을 담고 있어 일관성이 없습니다. 원본에서는 모집이 있다고 했으나, 생성된 응답에서는 모집이 없다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 제공하고 있어 관련성이 낮습니다. 원본의 핵심 정보인 모집 인원에 대한 언급이 없기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 문장 구조가 일관되지만, 원본과의 내용 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름은 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본에서는 모집이 있다고 명시되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 모두 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 문법적으로 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.7693513550910465</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 모집이 없습니다. 
+참고로, 제공된 정보에는 물리치료학과에 대한 관련 내용이 포함되어 있지 않습니다. 만약 더 자세한 정보가 필요하다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜와 요일을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보가 원본의 내용을 보완하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 실기고사 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.5400655582276831</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 있습니다. 자세한 일정은 입학 안내 홈페이지를 통해 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저 학력 기준이 없다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저 기준이 없다는 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 최저 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.5098020364412651</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준은 없습니다. 해당 학과에서 수능 최저기준이 설정되어 있지 않다는 정보가 제공되었습니다.
+만약 더 자세한 정보를 원하시거나 확인이 필요하다면, 공식 웹사이트인 "https://ipsi. deu. ac. kr/main. do"를 방문하여 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 2024학년도에 신설된 학과 목록을 정확하게 나열하고 있으며, 추가적인 정보도 제공하고 있습니다. 그러나 "창업투자경영학과"가 이전에 모집중지된 학과라는 정보는 원문에 명시되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 대체로 일치하지만, "창업투자경영학과"에 대한 추가 설명이 원문에 없는 정보이므로 일관성이 떨어질 수 있습니다. 원문에 없는 정보를 추가함으로써 일관성이 약간 저하되었습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 주제와 관련이 깊으며, 신설된 학과에 대한 정보를 직접적으로 다루고 있습니다. 추가적인 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 추가된 정보가 원문과의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, "창업투자경영학과"에 대한 이전 모집중지 정보는 원문에 포함되어 있지 않으므로 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 정보의 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞아떨어지며, 추가된 정보도 적절하게 연결되어 있습니다. 그러나 원문에 없는 정보가 포함되어 있어 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 다만, 추가된 정보가 혼란을 줄 수 있는 요소가 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.6270310793599216</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 "심리학과"와 "스마트항만물류학과", "창업투자경영학과", "라이프융합학부(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)"가 있습니다.
+하지만 주의할 점은 "라이프융합학부"는 4개 전공을 신설하였으며, "창업투자경영학과"도 신설되었지만 이전에 모집중지된 학과였다는 것입니다. 따라서 정확한 신설 학과를 파악하기 위해서는 공식 입학 안내서나 대학 홈페이지를 확인하는 것이 좋습니다.
+더 궁금하신 사항이 있으시다면 https://ipsi.deu.ac.kr/main.do 링크를 통해 자세히 알아보실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율에 대한 구체적인 정보를 제공하지 않고, 오히려 정보가 없다고 잘못된 주장을 하고 있습니다. 이는 원본 텍스트의 사실과 완전히 상반됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 전형요소 반영비율에 대한 정보를 부정하고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하지 않으며, 원본 텍스트의 핵심 내용을 다루지 않고 있습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되었으나, 내용의 부정확성으로 인해 전체적인 의미 전달이 약간 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조는 일관되지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약간 어색합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전형요소 반영비율에 대한 정확한 정보를 제공하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 부적절하며, 원본 텍스트의 맥락과 맞지 않는 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 이해할 수 있으나, 내용의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.6180888657342427</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)에 대한 전형 요소 반영 비율에 대한 구체적인 데이터가 없습니다. 만약 더 자세한 정보를 원하신다면, https://ipsi. deu. ac. kr/main. do 웹사이트를 참조하거나 동의대학교 입학처로 직접 문의해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 학과에 대한 정보를 제공하고 있지만, 원본 텍스트에 명시된 모집단위와는 다소 차이가 있습니다. 원본 텍스트는 특정 모집단위(의료·보건·생활대학, 공과대학, ICT융합공과대학)만을 언급하고 있으며, 생성된 응답은 추가적인 학과들을 나열하고 있습니다. 이로 인해 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트에서 언급된 모집단위 외에 다른 학과들이 추가되어 있어 일관성이 떨어집니다. 따라서 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 가산점과 관련된 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 추가된 학과들이 원본 텍스트의 내용과 직접적으로 연결되지 않기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 있을 수 있으나 전반적으로 유창합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 학과를 나열하고 있지만, 원본 텍스트의 구조와 흐름을 따르지 않기 때문에 일관된 논리적 흐름이 부족합니다. 따라서 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 다르게 추가적인 학과들을 포함하고 있어 정확성이 떨어집니다. 원본 텍스트의 정보와 일치하지 않기 때문에 낮은 점수를 부여합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부 긍정적인 요소(유창성, 관련성)를 가지고 있지만, 사실성, 일관성, 정확성에서 부족함이 있어 중간 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 추가된 정보로 인해 원본의 맥락과 다소 어긋나는 부분이 있습니다. 따라서 적절성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 표현되어 있습니다. 그러나 일부 추가 정보로 인해 혼란스러울 수 있는 부분이 있어 점수는 높지만 완벽하지는 않습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.713810452620727</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서 수능 가산점을 적용하는 학과들은 다음과 같습니다:
+1. 의료보건생활대학의 간호학과, 임상병리학과, 치위생학과, 방사선학과, 의료경영학과, 물리치료학과, 식품영양학과
+2. 한의과대학의 한의예과(수학&lt;미적분/기하&gt;)와 한의예과(수학&lt;확률과통계&gt;)
+3. 공과대학의 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과
+위 학과들은 수능 가산점을 적용하여 입시를 진행하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적이 100% 반영된다는 원문 내용을 왜곡하고 있으며, 구체적인 반영 방법에 대한 정보가 추가되었지만, 원문에서 언급된 '38페이지 Ⅴ. 수능성적 반영방법'에 대한 언급이 없고, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보가 포함되어 있으며, 수능 성적 반영 방식에 대한 설명이 원문과 상충합니다. 원문은 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답은 여러 방식으로 반영된다고 설명하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 성적 반영 방법에 대한 정보를 제공하고 있어 원문과 관련이 있지만, 원문에서 강조한 100% 반영이라는 핵심 포인트가 누락되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 각 정보 간의 연결이 부족하여 전체적으로 일관된 흐름이 떨어집니다. 정보가 나열된 방식이 다소 단편적입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 원문은 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답은 다양한 방식으로 반영된다고 설명하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 불일치가 있으며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 원문과의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문의 의미를 왜곡하고 있어 의미적으로 완전히 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 정보가 복잡하게 제시되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.7059074284825763</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서는 수능 성적이 다음과 같이 반영됩니다.
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 이 부분은 학생들의 수능 성적을 기반으로 하며, 각 과목의 표준 변환 점수가 반영됩니다. 또한 가산점을 포함한 총합이 평균과 표준 편차를 가지고 있습니다.
+- **영어 등급**: 영어 성적이 등급으로 표현되며, 이 역시 평균과 표준 편차가 제공됩니다.
+- **수능 4개 영역 등급**: 수능의 4개 영역(국어, 수학, 사회/과학, 영어) 각각의 등급이 평균과 표준 편차로 제공됩니다.
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 이 부분은 가산점을 포함한 총합이 평균과 표준 편차를 가지고 있습니다.
+따라서, 동의대학교 가군에서는 수능 성적이 다양한 방식으로 반영되며, 각 영역별 평균 및 표준 편차가 제공됩니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기고사 날짜에 대한 정보를 부정확하게 전달하고 있습니다. 실제로는 2024년 1월 16일에 진행된다고 명시되어 있지만, 응답에서는 해당 정보가 없다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 명확한 날짜를 제공하고 있지만, 생성된 응답은 그 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 공식 웹사이트를 언급하며 추가 정보를 제공하려고 하지만, 질문의 핵심인 실기고사 날짜에 대한 정보는 제공하지 않기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 사실과 크게 다르며, 원본 텍스트의 정보를 잘못 전달하고 있습니다. 날짜에 대한 정보가 없다고 주장하는 것은 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 품질 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 매우 낮은 품질의 응답입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 응답의 의미는 적절하지 않으며, 원본 텍스트의 맥락과 일치하지 않습니다. 날짜에 대한 정보가 없다고 주장하는 것은 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.6361785769038759</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 2024학년도 가군 실기고사 날짜에 대한 내용이 없습니다. 정확한 날짜를 확인하려면 동의대학교의 공식 웹사이트나 입학처에 직접 문의해 주세요. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 동의대학교의 공식 웹사이트로 이동하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 제외되는 학과 목록이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.808560374172216</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외되었습니다.
+이 정보는 "전형요소 반영비율" 항목에서 확인할 수 있습니다. 해당 항목 중 "나군 수능(일반학생전형) 전 모집단위(한의예과, 디자인조형학과, 체육학과, 경기지도학과 제외)" 부분을 참조하면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 일치하며, 수능 최저기준이 적용되지 않는다는 사실을 정확하게 반영하고 있습니다. 추가적으로 전형의 특징에 대한 정보도 제공하고 있어 사실성을 높이고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 일관되며, 수능 최저기준이 적용되지 않는다는 내용을 반복하여 강조하고 있습니다. 전형의 세부 사항도 원문과 일치하여 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 주제와 관련이 깊으며, 수능 최저기준과 전형의 특징에 대한 정보를 제공하여 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 정확히 일치하며, 추가적인 세부 사항도 정확하게 기술되어 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.7791620827446065</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 해당 전형의 특징을 요약하면 다음과 같습니다:
+- **전형명**: 다군 수능(일반학생전형) 전 모집단위
+- **모집 인원**: 180명
+- **사정 단계**: 일괄 합산
+- **전형요소 반영비율**:
+  - 학생부 교과: 0%
+  - 출결: 0%
+  - 서류: 0%
+  - 면접: 0%
+  - 실기: 0%
+  - 수능: 100%
+따라서, 이 전형에서는 수능 최저기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 학부에서 학과로 분리된 모든 학과의 이름과 변화를 올바르게 나열하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다. 원본의 내용과 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다. 자연스러운 한국어 표현이 사용되었습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 명확합니다. 각 항목이 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이나 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.8590524148123295</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다.
+1. 아동학과 (原来是保育·家政咨询学系)
+2. 금융경영학과 (原来是经济金融保险学系)
+3. 경영정보학과, e비즈니스학과 (原来是信息经营管理学系(经营信息学,e商务学))
+4. 부동산자산경영학부(부동산투자학, 부동산개발경영학) (原来是房地产金融·资产经营管理学系)
+5. 기계공학과, 로봇자동화공학과, 자동차공학과 (原来是机械汽车机器人部品工学系)
+6. 신소재공학과, 고분자나노공학과 (原来是新材料工学系)
+7. 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과 (原来是建筑工学系)
+8. 화학공학과, 환경공학과, 응용화학과 (原来是化学环境工学系)
+9. 의생명공학과, 바이오의약공학과, 식품공학과 (原来是生物应用工学系)
+10. 인간공학과, 제품디자인공학과 (原来是设计工程学系)
+11. 산업경영빅데이터공학과 (原来是产业融合信息技术学系)
+12. 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) (原来是创意软件工学系)
+13. 전기공학과, 전자공학과 (原来是电气电子通信工学系)
+14. 음악학과(클래식, 실용음악, 뉴미디어작곡) (原来是音乐学系)
+위와 같이 학부에서 학과로 분리되었습니다.</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원서접수 마감일이 2024년 1월 6일(토) 18시라는 사실을 정확하게 반영하고 있습니다. 그러나 원서접수 시작일인 2024년 1월 3일(수)에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분은 추가적인 정보로 볼 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 마감일을 언급하고 있으며, 추가된 시작일 정보도 일관성을 유지하고 있습니다. 다만, 원본 텍스트에 없는 정보를 포함하고 있어 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 원서접수 마감일에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 마감일에 대한 정확한 정보를 제공하지만, 시작일에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일부 정보의 추가로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.7496114745294973</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에 따르면, 원서접수(인터넷)는 2024. 01. 03.(수)부터 2024. 01. 06.(토)까지 마감되며, 마감일은 18시까지입니다.
+자세한 일정은 다음과 같습니다:
+- 원서접수(인터넷): 2024. 01. 03.(수)～2024. 01. 06.(토) 마감일 18시까지
+더 궁금하신 사항이 있으시면 추가로 질문해 주세요!</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 내용과 크게 다르며, 전형 요소 변화에 대한 정확한 정보를 제공하지 않고 있습니다. 예를 들어, '학생부교과(농어촌학생전형)'와 같은 전형은 원본 텍스트에 언급되지 않았습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일관성이 없으며, 서로 다른 전형에 대한 정보가 포함되어 있어 혼란을 초래합니다. 원본 텍스트의 전형 요소 변화와는 전혀 다른 내용을 담고 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 전형 요소 변화에 대한 구체적인 정보가 부족하여 관련성이 낮습니다. 원본 텍스트의 핵심 내용을 제대로 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 구조적으로 어느 정도 일관성을 가지고 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보가 포함되어 있습니다. 전형 요소 변화에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많아 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해하기 쉬운 편이지만, 내용의 정확성과 관련성이 부족하여 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.789419801273368</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1. **학생부교과**:
+   - **나군 학생부교과(농어촌학생전형) 6년 과정**: 
+     - 중·고등학교 재학기간 중 본인 및 부모 모두 농어촌 지역에 거주한 자의 서류 제출 요건이 추가되었습니다.
+   - **나군 학생부교과(농어촌학생전형) 12년 과정**: 
+     - 중·고등학교 재학 시 부, 모 모두 농어촌 지역에서 거주한 자에 대한 서류 제출 요건이 추가되었습니다.
+2. **학생부종합**:
+   - **나군 학생부종합(평생학습자전형) / 성인학습자(정원내·외)전형 / 재직자전형**: 
+     - 동점자 처리 기준이 변경되었습니다.
+       - 1위: 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급 평균 상위자
+       - 2위: 영어교과 전 과목 등급 평균 상위자
+       - 3위: 국어교과 전 과목 등급 평균 상위자
+이러한 변화가 있으므로, 지원을 계획 중인 학생들은 해당 변경사항을 참고하여 서류 준비를 체계적으로 진행해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중이 70%라는 사실을 잘못 해석하고 있습니다. 응답에서는 레저스포츠학과와 태권도학과의 실기 비중이 70%라고 언급하고 있지만, 전체 전형에서의 실기 비중은 70%라는 점이 잘못 전달되었습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본에서는 전체 실기 비중이 70%라고 명시되어 있지만, 생성된 응답에서는 특정 학과의 비중만을 언급하고 있어 서로 상충하는 정보가 포함되어 있습니다.
+3. Relevance Score (1-5): 3  
+   - 설명: 생성된 응답은 원본 텍스트와 관련된 내용을 포함하고 있지만, 주된 질문에 대한 직접적인 답변이 부족합니다. 실기 비중에 대한 명확한 정보가 아닌 특정 학과에 대한 정보로 흐르고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트의 핵심 정보와는 다소 동떨어져 있습니다. 전체적인 구조는 이해할 수 있으나, 주제와의 연결이 약합니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 전체 실기 비중이 70%라는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 특정 학과에 대한 정보가 포함되어 있지만, 전체적인 맥락을 고려하지 않았습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 주제와의 관련성이 떨어져 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.6817686307545809</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서는 레저스포츠학과와 태권도학과를 제외한 모든 학과의 실기 비중이 30%입니다. 
+특히, 레저스포츠학과와 태권도학과는 실기 비중이 70%로 높게 설정되어 있습니다.
+따라서, 정확한 답변은 다음과 같습니다:
+- 레저스포츠학과와 태권도학과: 실기 비중 70%
+- 나머지 모든 학과: 실기 비중 30%
+이 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 전형요소 반영비율" 섹션에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 세부 전공 목록을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 전공의 내용과 관련된 정보가 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 전공에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전공에 대한 설명이 자연스럽게 이어집니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.8758549956974355</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 '라이프융합학부'는 세 가지 전공을 제공하고 있습니다. 이들 전공은 다음과 같습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이러한 세부 전공들은 평생학습자전형의 학생부종합 전형을 통해 지원할 수 있으며, 각 전공은 미래 사회에서 필요한 다양한 역량을 기르는 교육 프로그램을 제공하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사에 참여해야 하는 학과에 대한 정보를 명시하지 않고 있으며, 원본 텍스트에서 제공된 사실을 완전히 무시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 실기고사에 참여해야 하는 학과를 명확히 제시하고 있지만, 생성된 응답은 그러한 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 실기고사에 참여해야 하는 학과에 대한 질문에 대한 답변이 아닙니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 큰 오류는 없지만, 내용이 원본 텍스트와 관련이 없기 때문에 읽는 이에게 혼란을 줄 수 있습니다. 전반적으로는 괜찮은 문장 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다. 원본 텍스트의 정보와 관련이 없기 때문에 논리적인 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 실기고사에 참여해야 하는 학과에 대한 정보를 제공하지 않기 때문에 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 혼란을 줄 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.4854290700289311</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 2024학년도 가군에서 실기고사를 치르는 학과에 대한 명시가 없습니다. 외국고 지원 가능이라는 점만 언급되어 있습니다. 
+따라서 정확한 답변을 드리기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 정보를 확인해 주세요. 해당 사이트에서 공식 모집요강이나 실기고사 관련 안내를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트에 나열된 모든 학과를 정확하게 포함하고 있으며, 사실적으로 정확합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.7540611057200775</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형으로 지원 가능한 학과는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과입니다. 이들 학과는 해당 전형을 통해 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 제공되는 전공 목록도 일치합니다. "2024학년도"라는 추가 정보는 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 전공에 대한 정보가 일치합니다. 추가된 내용도 원본의 맥락을 해치지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 전공에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.8029226192421054</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 라이프융합학부는 신설되었으며, 다음과 같은 전공을 제공합니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학
+- 라이프생활문화학
+따라서, 2024학년도 동의대학교 라이프융합학부에서는 이 세 가지 전공을 모집하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 언급하고 있지만, 동국대학교에 대한 정보가 포함되어 있어 원본 텍스트와의 일관성이 떨어진다. 또한, 농어촌학생전형에 대한 언급이 없어서 일부 중요한 정보를 누락하고 있다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있지만, 동국대학교에 대한 정보가 추가되어 있어 일관성이 부족하다. 원본 텍스트의 맥락과는 다소 다른 방향으로 나아가고 있다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변으로서 관련성이 있지만, 동국대학교에 대한 구체적인 정보가 추가되어 있어 원본 텍스트의 주제와는 약간 벗어난다. 그러나 여전히 질문의 핵심에 대한 답변을 제공하고 있다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으며, 문법적으로도 큰 문제가 없다. 그러나 중국어와 한국어가 혼합되어 있어 일부 독자에게는 이해하기 어려울 수 있다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해져서 일관된 주제를 유지하지 못하고 있다. 동국대학교에 대한 정보가 추가되면서 주제가 분산된 느낌이 있다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 중요한 세부사항을 누락하고 있다. 특히 농어촌학생전형에 대한 언급이 없어서 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 품질을 보이지만, 원본 텍스트와의 일관성 및 정확성이 부족하여 전반적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 맞는 의미를 전달하고 있지만, 동국대학교에 대한 정보가 추가되면서 원본 텍스트의 의미와는 다소 차이가 있다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용이지만, 언어의 혼합으로 인해 일부 독자에게는 혼란을 줄 수 있다. 
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.5682813335462225</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>你是特殊高中学生，可以申请동국大学的一般学生入学类型。根据提供的信息，在"고교유형별 지원자격"部分中：
+- 特殊目的高中（科学高、国际高、外语高）：支持申请。
+因此，作为特殊高中学生，你可以申请东国大学的一般学生入学类型（가군）。但是，请注意具体每个专业的招生要求可能会有所不同，建议你查看相关专业的详细信息或直接访问东国大学的官方网站以获取最准确的信息。如果需要进一步的帮助，可以咨询学校的招生办公室。</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본에서는 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과로 언급되었으나, 생성된 응답에서는 영어영문학과가 가장 많이 모집한다고 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본의 내용과 생성된 응답의 내용이 서로 모순됩니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 질문에 대한 답변을 시도하지만, 잘못된 정보를 제공하여 관련성이 낮습니다. 원본의 핵심 내용과는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관성을 유지하고 있지만, 원본 텍스트와의 관계에서 비일관성이 있어 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 제공하여 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.6984533887522111</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인해보겠습니다.
+제공된 정보에 따르면, 나군 전형에서는 다음과 같은 학과들이 모집되고 있습니다:
+- 영어영문학과 (교직): 28명
+- 경영정보학과: 7명
+- e비즈니스학과: 10명
+- 응용화학과: 22명
+- 의생명공학과: 20명
+- 식품공학과: 20명
+이 중에서 가장 많은 인원을 모집하는 학과는 **영어영문학과 (교직)**로, 28명을 모집하고 있습니다.
+따라서 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **영어영문학과 (교직)**입니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 출신자가 동의대 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 완전히 반대로 설명하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 지원이 불가능하다고 명시하고 있지만, 생성된 응답은 가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으나, 잘못된 정보로 인해 관련성이 떨어집니다. 원본 텍스트의 내용을 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 오류가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 일관된 구조를 가지고 있으나, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성 모두 낮은 점수를 받았기 때문에 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.5752876928980398</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생인 경우 동의대학교에서 농어촌학생전형을 통해 지원이 가능합니다. 그러나 지원 자격에 대한 세부 조건은 모집군과 전형명에 따라 다르므로, 정확한 자격 요건을 확인하기 위해서는 해당 대학의 공식 웹사이트를 참조하시거나, 입학처와 직접 문의해보시는 것이 좋습니다. [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 링크를 통해 동의대학교의 공식 웹사이트로 이동하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 없다는 점을 언급하고 있지만, "다른 학과의 합격자 평균 성적 정보만이 포함되어 있습니다"라는 부분은 원문에 명시되어 있지 않은 정보입니다. 따라서 일부 사실과 일치하지만, 추가된 정보로 인해 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 다른 학과의 합격자 평균 성적 정보가 포함되어 있다는 주장은 원문에 없는 내용입니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 있으며, 관련 데이터가 없다는 점을 잘 전달하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, "deu"와 "ac" 사이의 공백이 불필요하게 삽입되어 있어 약간의 매끄러움이 떨어집니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원문과의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일부 일치하지만, 다른 학과의 합격자 평균 성적 정보가 포함되어 있다는 주장은 사실이 아닙니다. 따라서 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있지만, 사실성과 정확성에서 일부 문제를 보입니다. 그럼에도 불구하고 관련성과 유창성은 높습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하지만, 추가된 정보로 인해 약간의 의미 왜곡이 발생했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 불필요한 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.7793493276481304</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 2024학년도 소프트웨어공학부에 대한 관련 데이터가 없습니다. 다른 학과의 합격자 평균 성적 정보만이 포함되어 있습니다. 더 자세한 정보를 원하신다면, 해당 대학교의 공식 웹사이트(https://ipsi. deu. ac. kr/main. do)를 참조해보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 없다는 점은 정확하게 반영하고 있지만, "다른 학과의 성적 정보만이 포함되어 있습니다"라는 부분은 사실과 다릅니다. 원문에서는 다른 학과에 대한 정보에 대한 언급이 없기 때문에 이 부분은 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부 일치하지만, 다른 학과의 성적 정보에 대한 언급이 추가되어 있어 일관성이 떨어집니다. 원문에서는 그러한 정보가 포함되어 있지 않다고 명시하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 요청한 정보와 관련이 있으며, 관련 웹사이트를 언급하여 추가 정보를 찾을 수 있도록 안내하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편입니다. 다만, "해당 대학교의 공식 웹사이트(https://ipsi. deu. ac. kr/main. do)" 부분에서 공백이 있어 약간의 매끄러움이 떨어집니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원문과의 일관성 문제로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원문에서 제공된 정보와 일부 일치하지만, 다른 학과의 성적 정보에 대한 언급이 사실과 다르기 때문에 정확성 점수가 낮아집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 관련성과 유창성에서 좋은 점수를 받지만, 사실성과 일관성에서 문제가 있어 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 사실과 다르기 때문에 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 일부 정보의 부정확성으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.7216628867224936</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 2024학년도 소프트웨어공학부에 대한 관련 데이터가 없습니다. 다른 학과의 성적 정보만이 포함되어 있습니다. 더 자세한 정보를 원하신다면, 해당 대학교의 공식 웹사이트(https://ipsi. deu. ac. kr/main. do)를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 최초 합격자 등록 일정과 충원 합격자 등록 일정에 대한 세부 사항이 추가되어 있습니다. 원본 텍스트에는 이러한 세부 사항이 포함되어 있지 않으므로, 일부 정보가 과도하게 추가되어 사실성과 정확성에 영향을 미칩니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 추가된 내용으로 인해 일관성이 떨어집니다. 특히 최초 합격자 등록 일정과 충원 합격자 등록 일정이 원본 텍스트에 명시되어 있지 않기 때문에, 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정과 관련된 정보를 제공하고 있으며, 주제와 관련성이 높습니다. 그러나 추가된 등록 일정이 원본 텍스트와는 다소 차이가 있어 완전한 관련성을 보장하지는 않습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽고 자연스럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 차이로 인해 일부 부분에서 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 사실을 포함하고 있지만, 추가된 정보로 인해 정확성이 떨어집니다. 특히 등록 일정에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로 정확성이 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보입니다. 사실성과 일관성에서 다소 부족하지만, 유창성과 관련성에서는 긍정적인 평가를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 추가된 정보가 원본 텍스트와의 일관성을 떨어뜨리므로 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.8004145128073962</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+1. **최초 합격자 발표 및 등록**
+   - **일정**: 2024년 2월 2일 (금) 14:00
+   - **내용**: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+2. **최초 합격자 등록**
+   - **일정**: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화)
+   - **시간**: 은행 마감 시간 내
+   - **내용**: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+3. **충원 합격자 발표 및 등록**
+   - **1차 충원 합격자 발표**
+     - **일정**: 2024년 2월 14일 (수) 09:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+   - **1차 충원 합격자 등록**
+     - **일정**: 2024년 2월 14일 (수) 09:00 ~ 16:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+   - **2차 충원 합격자 발표**
+     - **일정**: 2024년 2월 15일 (목) 09:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+   - **2차 충원 합격자 등록**
+     - **일정**: 2024년 2월 15일 (목) 09:00 ~ 16:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+   - **3차 이후 충원 합격자 발표**
+     - **일정**: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+   - **3차 이후 충원 합격자 등록**
+     - **일정**: 개별 전화 통보 시 안내
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 면접고사 일정에 대한 구체적인 정보를 제공하지 않고, 면접 절차와 관련된 추가 정보를 포함하고 있습니다. 그러나 원본 텍스트에서 명시된 면접고사 일정(2024. 01. 20.)이 누락되어 있어 사실성 점수가 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 정보인 면접고사 일정과 일치하지 않으며, 추가적인 정보가 포함되어 있지만 원본의 주제를 벗어나 있습니다. 따라서 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 면접고사와 관련된 정보를 제공하지만, 원본 텍스트의 핵심인 면접 일정에 대한 정보가 부족하여 관련성 점수가 중간입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 절차를 나열하고 있지만, 원본 텍스트의 주제와 연결되지 않아 논리적 흐름이 약간 부족합니다. 따라서 일관성 점수는 중간입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 중요한 사실인 면접고사 일정이 누락되어 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 점수가 낮아 전반적인 품질이 좋지 않습니다. 사실성, 일관성, 정확성에서 모두 부족한 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 면접과 관련된 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 따라서 의미 적합성 점수는 중간입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 작성되어 있습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.3818295260085555</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>면접고사는 개별적으로 실시되며, 시간은 평균 10분 이내입니다. 정확한 일정은 입학 안내 홈페이지에서 확인하실 수 있습니다. 대기실에 들어가신 후, 신분 확인을 거쳐 면접장으로 이동하게 됩니다.
+면접일정은 다음과 같습니다:
+- 대기실 입실
+- 신분 확인
+- 고사장 앞 이동
+- 고사장 입실
+- 지원동기 및 학업계획 발표
+- 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+- 기타 질의응답(제출서류 진위 여부 등)
+- 퇴실
+면접은 블라인드 방식으로 진행되며, 개인 신상 정보가 노출되지 않습니다. 교복 착용도 금지되어 있습니다.
+정확한 일정과 절차는 입학 안내 홈페이지에서 확인해 주세요. https://ipsi. deu. ac. kr/main. do 링크를 통해 더 자세히 알아보실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 수능 최저 기준이 없다는 점도 명확히 언급되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 추가적인 정보 요청도 포함되어 있어 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 주제와 관련이 깊으며, 수능 최저 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 문장은 문법적으로 정확하고 자연스럽게 작성되어 있어 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 응답은 원문에 포함된 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 응답이 우수하게 수행되고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 응답의 의미가 원문과 잘 일치하며, 적절한 맥락에서 작성되었습니다.
+9. Understandability Score (1-5): 5
+   - 응답은 매우 명확하고 이해하기 쉬운 방식으로 작성되었습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.5424485129871841</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>한의예과의 경우, 수능최저기준이 없습니다. 따라서 수능 점수에 대한 요구사항은 없습니다.
+만약 다른 전형이나 학과의 수능최저기준을 확인하고 싶으시다면, 해당 정보를 제공해주시면 더 정확한 답변을 드릴 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 모든 전형에서 수능 최저학력 기준이 없음을 명확히 언급하고 있어 사실적 정확성이 높습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 수능 최저학력 기준이 없다는 내용을 반복적으로 강조하고 있습니다. 따라서 일관성이 매우 높습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제기된 질문에 직접적으로 관련된 내용을 다루고 있으며, 수능 최저학력 기준에 대한 정보를 충분히 제공합니다. 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다. 유창성이 매우 높습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 일관된 흐름을 유지하고 있어 일관성이 높습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제공된 정보와 일치하며, 사실적으로 정확합니다. 정확성이 매우 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 정확성 등 모든 차원에서 매우 높은 품질을 보여줍니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다. 의미적 적합성이 매우 높습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다. 이해 가능성이 매우 높습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.5978807602262428</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시 전형으로 지원할 때 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 정시전형으로 지원할 때 수능최저학력기준은 없습니다. 모든 전형에서 수능최저학력기준이 없음을 확인할 수 있습니다.
+따라서, 정시전형으로 지원하더라도 수능 최저학력 기준을 충족시키지 않아도 지원 가능합니다. 하지만 각 전형별로 다른 요소들이 반영되므로, 지원하고자 하는 전형의 특징과 요구사항을 잘 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 일부 정보를 포함하고 있지만, 첫 번째 충원 합격자 등록과 두 번째 충원 합격자 등록에 대한 정보는 원본 텍스트에 명시되어 있지 않으며, 날짜와 시간에 대한 정보도 일부 잘못 기재되어 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있으며, 특히 등록 일정에 대한 내용이 원본과 상충합니다. 이러한 불일치로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 정보를 제공하고 있으나, 원본 텍스트에 없는 추가적인 등록 정보가 포함되어 있어 약간의 관련성 저하가 있습니다. 그러나 여전히 주제와 관련된 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일정한 흐름을 가지고 있으나, 원본 텍스트와의 불일치로 인해 논리적 일관성이 떨어집니다. 특히 등록 일정에 대한 정보가 추가되면서 전체적인 일관성이 약해졌습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 잘못된 정보가 포함되어 있습니다. 특히 등록 일정에 대한 정보는 원본에 명시되어 있지 않으므로 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 기록하고 있으며, 사실성, 일관성, 정확성 모두에서 문제가 있습니다. 따라서 전반적인 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트와의 불일치로 인해 의미적으로 완전히 적절하지 않습니다. 일부 추가 정보가 혼란을 초래할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 불일치로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.8760624550726746</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 충원합격자 발표 일정은 다음과 같습니다:
+1. 첫 번째 충원 합격자 발표:
+   - 날짜: 2024년 2월 14일 (수)
+   - 시간: 9:00
+2. 첫 번째 충원 합격자 등록:
+   - 날짜: 2024년 2월 14일 (수) ~ 2024년 2월 15일 (목) 16:00까지
+3. 두 번째 충원 합격자 발표:
+   - 날짜: 2024년 2월 15일 (목)
+   - 시간: 9:00
+4. 두 번째 충원 합격자 등록:
+   - 날짜: 2024년 2월 15일 (목) 9:00 ~ 16:00까지
+이후에는 개별 전화 통보를 통해 발표 및 등록이 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 추가합격자 발표일에 대한 정보를 제공하지 않다고 주장하지만, 원본 텍스트에는 명확하게 발표 일정이 나와 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 반박하고 있으며, 원본의 정보와 일치하지 않습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 제공된 정보에 대한 직접적인 답변이 부족하여 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 원본 텍스트와의 관련성 부족으로 인해 약간의 흐름이 끊기는 느낌이 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 관계가 명확하지 않아 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보로 인해 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.3366899217467588</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 추가합격자 발표일은 명시되어 있지 않습니다. 추가합격자 발표일에 대한 자세한 정보를 얻으려면, 해당 대학의 공식 웹사이트(https://ipsi. deu. ac. kr/main. do)를 방문하여 최신 안내사항을 확인하거나, 학교 관계자에게 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 추가 모집에 대한 구체적인 정보를 제공하지 않으며, 원본 텍스트에서 언급된 내용과는 다소 차이가 있습니다. 원본 텍스트는 추가 모집이 발생할 수 있는 조건을 명확히 설명하고 있지만, 생성된 응답은 그러한 조건을 언급하지 않고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 추가 모집의 조건에 대한 언급이 없기 때문에 일관성이 떨어집니다. 원본 텍스트는 추가 모집이 발생할 수 있는 상황을 설명하고 있으나, 생성된 응답은 그에 대한 정보를 제공하지 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 추가 모집에 대한 질문에 대한 답변을 제공하고 있으며, 관련 웹사이트를 안내하고 있습니다. 그러나 원본 텍스트의 구체적인 내용과는 연결이 부족합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있습니다. 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 질문에 대한 답변으로서의 일관성을 유지하고 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확히 반영하지 않으며, 추가 모집의 조건에 대한 정보가 누락되어 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트와의 연결이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 의미적으로 적절한 답변을 제공하고 있으며, 웹사이트 링크를 통해 추가 정보를 찾을 수 있도록 안내하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 언어로 작성되어 있어, 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.4685341608969223</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>현재 제공된 정보에서는 추가 모집 단위나 인원이 명시되어 있지 않습니다. 추가 모집이 있는지 확인하려면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 정보를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 평생학습자전형에 대한 정보가 아닌 성인 학습자를 대상으로 하는 전형에 대한 설명을 포함하고 있습니다. 원본 텍스트의 구체적인 내용(모집단위, 모집인원, 지원자격 등)을 반영하지 않고, 전형의 평가 요소와 기준에 대한 정보로 대체하고 있어 사실성이 낮습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 평생학습자전형의 구체적인 모집 정보와 제출 서류에 대한 내용을 포함하고 있지만, 생성된 응답은 전형의 평가 기준에 대한 설명으로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 평생학습자전형에 대한 설명을 포함하고 있지만, 원본 텍스트의 주요 내용(모집단위, 모집인원, 제출서류 등)과는 관련성이 낮습니다. 전형의 평가 요소에 대한 정보는 있지만, 원본의 핵심 주제를 충분히 다루지 못하고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 생성된 응답은 전형의 평가 기준에 대한 설명이 논리적으로 잘 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않고, 전형의 평가 기준에 대한 정보로 대체하고 있어 정확성이 낮습니다. 원본의 구체적인 내용이 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 낮고, 사실성, 일관성, 관련성 모두에서 부족한 점이 많아 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 평생학습자전형에 대한 설명을 포함하고 있지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 전형의 평가 기준에 대한 설명은 적절하지만, 원본의 구체적인 내용과는 맞지 않습니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 내용이 명확하게 전달되고 있습니다. 그러나 원본 텍스트와의 관련성이 떨어져 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.5536270160820317</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 성인 학습자를 대상으로 하는 전형입니다. 이 전형에서는 서류평가와 면접평가를 통해 지원자의 학업역량, 공동체역량, 전공적합성 등을 평가합니다.
+1. **서류평가**:
+   - **공동체역량**: 협업능력과 학교폭력 여부 등이 평가됩니다.
+   - **학업역량**: 학업태도와 성취정도, 수업시간 참여 정도, 출결상황 등을 평가합니다.
+   - **전공적합성**: 지원자의 열정과 지원 전공(계열) 관련 활동 및 경험을 평가합니다.
+2. **면접평가**:
+   - **학업역량**: 문제해결능력과 학업 역량에 대한 질문이 주어집니다.
+   - **전공적합성**: 진로 탐색 활동을 통한 성장과정과 결과, 지원 전공(계열)에 대한 관심과 이해를 평가합니다.
+3. **평가영역 및 배점**:
+   - **학업역량**: 1등급은 280점, 5등급은 196점입니다.
+   - **전공적합성**: 1등급은 280점, 5등급은 196점입니다.
+4. **동점자 처리기준**:
+   - 1위는 면접고사 성적 상위자로 결정됩니다.
+   - 2위는 서류평가 공동체역량 영역 성적 상위자로 결정됩니다.
+   - 3위는 서류평가 전공적합성 영역 성적 상위자로 결정됩니다.
+5. **제출서류**:
+   - 고교 졸업(예정)자는 학생부 온라인 제공 동의자에 한해 학생부를 온라인으로 제공 받습니다.
+   - 4대 보험 가입자나 미가입자, 농업 및 수산업 종사자, 군 경력자 등은 각각 특별한 서류를 제출해야 합니다.
+이러한 절차와 평가 기준을 통해 평생학습자전형에서는 성인 학습자의 전반적인 역량과 적합성을 종합적으로 평가합니다.</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 평생학습자전형의 지원자격에 대한 정보가 아닌, 산업체 적용 범위와 재직기간 산정에 대한 내용을 포함하고 있습니다. 이는 원본 텍스트와 전혀 관련이 없으며, 잘못된 정보입니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 평생학습자전형의 지원자격에 대한 질문에 대한 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되었으나, 내용이 원본과 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 모든 평가 기준에서 낮은 점수를 받았기 때문에 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 전혀 맞지 않으며, 주제와도 관련이 없습니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해할 수 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 이해도는 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.6667611244405325</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 산업체 적용 범위:
+   - 국가 또는 지방자치단체 및 공공단체 (소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업 또는 자영업자 포함)
+2. 재직기간 산정:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원자격 증빙서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정함
+이러한 자격 요건을 충족해야 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사에 대한 정보를 부정확하게 전달하고 있습니다. 원본 텍스트에는 실기고사 대기실 및 입실시간에 대한 명확한 정보가 포함되어 있지만, 생성된 응답은 그러한 정보가 없다고 주장하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 실기고사에 대한 정보가 없다고 주장하는 것은 원본의 내용을 반박하는 것입니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 실기고사에 대한 구체적인 정보를 제공하지 않고 있습니다. 원본의 핵심 정보를 무시하고 다른 웹사이트를 언급하는 것은 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트의 정보와 일치하지 않기 때문에 일관된 흐름이 부족합니다. 원본의 내용을 반영하지 않으므로 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 실기고사에 대한 명확한 정보를 제공하지 않고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 반영하지 못하고 있습니다. 실기고사에 대한 정보가 없다고 주장하는 것은 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 편입니다. 그러나 내용의 부정확성으로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.3936904534109008</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 실기고사에 대한 명시는 없습니다. 따라서 현재의 정보에서는 실기고사가 어디서 이루어지는지 알 수 없습니다. 
+더 자세한 정보를 얻으려면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 확인해 보세요. 해당 사이트에서 관련 정보를 찾을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 실기고사 대기실 및 입실시간에 대한 정보를 올바르게 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.7538371816080638</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 대기실 및 입실시간 안내를 받으시려면 2024년 1월 12일 금요일 오후 2시 이후에 입학안내 홈페이지에서 조회하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표가 전화로 개별 연락을 하지 않는다는 사실을 잘못 전달하고 있습니다. 응답에서는 "개별 전화 통보를 받을 수 있습니다"라고 언급하고 있어, 원문과 상충되는 정보입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문에서는 전화 통보가 이루어지지 않는다고 명확히 언급하고 있지만, 생성된 응답에서는 전화 통보가 이루어진다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 전화 통보와 관련된 정보에 대해 잘못된 내용을 포함하고 있지만, 홈페이지에서 결과를 확인해야 한다는 점은 관련성이 있습니다. 그러나 잘못된 정보로 인해 전체적인 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 전화 통보에 대한 잘못된 주장이 응답의 흐름을 방해합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 크게 다릅니다. 전화 통보가 이루어질 수 있다고 잘못 언급하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 잘못된 정보가 포함되어 있어 전반적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 의미적으로 상충되는 부분이 많아 적절하지 않습니다. 전화 통보에 대한 잘못된 주장은 원문의 의미를 왜곡합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.6791722579946579</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수시 충원 합격자 발표 후에는 개별 전화 통보를 받을 수 있습니다. 하지만 모든 합격자는 먼저 홈페이지에서 개별 조회를 통해 결과를 확인해야 합니다. 이후에 개별 전화 통보가 이루어질 것입니다.
+만약 자세한 일정이나 추가적인 정보가 필요하다면, 공식 입학 안내 홈페이지 (http://ipsi. deu. ac. kr) 또는 관련 게시물을 참고하시거나, 학교 입학관리팀으로 문의해 보세요.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 제공되지 않는다는 사실을 정확하게 반영하고 있습니다. 그러나 "제공된 정보는 주로 2024학년도와 관련되어 있습니다"라는 부분은 원문에 명시되어 있지 않은 정보로, 다소 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, 2024학년도와 관련된 정보가 포함되어 있다는 점에서 일관성이 떨어집니다. 원문에서는 2024학년도에 대한 언급이 없기 때문에 이 부분에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 있으며, 수시모집 결과에 대한 질문에 적절하게 답변하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, "https://ipsi. deu.ac.kr/main.do"에서 공백이 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달됩니다. 그러나 2024학년도에 대한 언급이 원문과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, 2024학년도와 관련된 정보는 원문에 포함되어 있지 않으므로 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하지만, 2024학년도에 대한 언급이 원문과의 의미적 일치를 약간 저해합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용입니다. 그러나 일부 문장 구조에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.8461893400848626</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보는 제공된 데이터에서 찾을 수 없습니다. 제공된 정보는 주로 2024학년도와 관련되어 있습니다. 더 구체적인 정보를 얻기 위해서는 동의대학교의 공식 웹사이트(https://ipsi. deu.ac.kr/main.do)를 방문하여 최신 자료를 확인하거나, 학교 관계자에게 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 일부 학과에서 수능 응시가 필요하지 않다고 주장하지만, 원문에서는 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다. 따라서 사실과 일치하지 않는 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충하는 내용을 포함하고 있습니다. 원문은 수능 응시가 필수라고 명시하고 있지만, 생성된 응답은 일부 학과에서 수능 응시가 필요하지 않다고 주장하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 정시모집과 관련된 내용을 다루고 있지만, 원문에서의 질문에 대한 직접적인 답변은 아닙니다. 그러나 관련된 정보가 포함되어 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 학과의 예를 제시하고 있지만, 전체적으로 논리적인 흐름이 부족하여 일관성이 떨어집니다. 각 학과의 예가 원문과의 관계를 명확히 설명하지 않기 때문입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서의 사실과 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 수능 응시가 필요하지 않다는 주장은 원문과 모순됩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 원문과의 관계가 부적절합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 의미적으로 원문과 일치하지 않는 부분이 있어 적절성에서 다소 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 내용이 원문과의 관계를 명확히 설명하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.4850357755115628</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>2023년과 2024년의 정시모집 변경 사항을 보면, 일부 학과에서는 수능 응시가 필요하지 않습니다. 예를 들어:
+1. **로봇자동화공학과 (나)**: 2023년에는 나군으로 수능을 통해 지원했지만, 2024년에는 가군으로 변경되어 수능 응시가 필요하지 않아졌습니다.
+2. **토목공학과 (나)**: 2023년에는 가군으로 수능을 통해 지원했으나, 2024년에는 나군으로 변경되어 수능 응시가 필요하지 않습니다.
+3. **응용화학과 (다)**: 2023년에는 다군으로 수능을 통해 지원했지만, 2024년에는 나군으로 변경되어 수능 응시가 필요하지 않습니다.
+4. **바이오의약공학과 (나)**: 2023년에는 다군으로 수능을 통해 지원했으나, 2024년에는 나군으로 변경되어 수능 응시가 필요하지 않습니다.
+따라서 일부 학과에서는 수능 응시가 필요하지 않아도 지원할 수 있습니다. 하지만 모든 학과에서 수능 응시가 필요하지 않은 것은 아닙니다. 특정 학과의 경우에도 여전히 수능 응시가 요구될 수 있으므로, 각 학과별 정확한 정보를 확인하시기 바랍니다.
+더 자세한 내용은 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 방문하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나면 정시 모집에 지원할 수 없다고 주장하고 있습니다. 그러나 원본 텍스트에서는 고등학교 졸업 시기와 상관없이 정시 지원이 가능하다고 명확히 언급하고 있습니다. 따라서 생성된 응답은 사실과 크게 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공합니다. 원본에서는 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 정시 모집에 지원할 수 없다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 고등학교 졸업 후 지원 방법에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 주제인 정시 지원 가능성에 대한 질문에 대한 직접적인 답변이 아닙니다. 따라서 관련성은 있지만, 주제에서 벗어난 부분이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 다소 떨어집니다. 특히 정시 지원 가능성에 대한 정보가 명확히 연결되지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 정보를 제공하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 제공하고 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.5536593670410354</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 일반적으로 고등학교를 졸업한 후 10년 이상 경과하면 정시 모집에 지원할 수 없습니다. 대신 평생학습자전형이나 성인학습자전형 등을 통해 지원이 가능합니다.
+만약 평생학습자전형인 경우, 지원 자격 중 재직기간이 3년 이상이라는 조건이 있습니다. 따라서 고등학교를 졸업한지 10년이 지났다면, 그 사이에 3년 이상의 경력을 가지고 있다면 해당 전형을 통해 지원할 수 있을 것입니다.
+자세한 내용은 "나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형) 지원자격" 섹션을 참고하시거나, 제공된 링크를 통해 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 의미적으로 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.8345591172384453</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집의 일정은 다음과 같습니다:
+1. **모집인원 확정 공고** (2024년 1월 2일)
+   - 입학안내 홈페이지에서 공고가 발표됩니다.
+2. **원서접수(인터넷)** (2024년 1월 3일 ~ 6일)
+   - 마감일은 18시까지이며, 접수 사이트는 `http://ipsi. deu. ac. kr` 또는 `http://www. uwayapply. com`에서 가능합니다.
+3. **서류 제출** (2024년 1월 3일 ~ 12일)
+   - 서류 제출 마감은 17시까지이며, 도착일이 중요합니다.
+   - 접수 사이트에서 우편발송용 표지를 출력하여 부착하거나 직접 우편으로 보내는 방법이 있습니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과 태권도학과)** (2024년 1월 16일)
+   - 대기실 및 입실시간 안내는 2024년 1월 12일 오후 2시 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)** (2024년 1월 17일)
+   - 대기실 및 입실시간 안내는 2024년 1월 12일 오후 2시 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+6. **합격자 발표 및 등록금 납부** (최초 합격자)
+   - &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군의 합격자는 2024년 2월 2일 오후 14시에 발표됩니다.
+   - 홈페이지에서 개별 조회 가능하며 고지서는 출력하거나 입학관리팀에서 수령할 수 있습니다.
+7. **합격자 발표 및 등록금 납부 (최초 합격자 등록)** (2024년 2월 7일 ~ 13일)
+   - 홈페이지에서 개별 조회 가능하며 고지서는 출력하거나 입학관리팀에서 수령할 수 있습니다.
+   - 등록장소는 학교 지정은행이며, 등록금 고지서에 기재된 정보를 참고해야 합니다.
+8. **합격자 발표 및 등록금 납부 (충원 합격자 1차)** (2024년 2월 14일)
+   - 홈페이지에서 개별 조회 가능하며 고지서는 출력하거나 입학관리팀에서 수령할 수 있습니다.
+   - 등록장소는 학교 지정은행이며, 등록금 고지서에 기재된 정보를 참고해야 합니다.
+9. **합격자 발표 및 등록금 납부 (충원 합격자 2차)** (2024년 2월 15일)
+   - 홈페이지에서 개별 조회 가능하며 고지서는 출력하거나 입학관리팀에서 수령할 수 있습니다.
+   - 등록장소는 학교 지정은행이며, 등록금 고지서에 기재된 정보를 참고해야 합니다.
+10. **합격자 발표 및 등록금 납부 (충원 합격자 3차 이후)** (2024년 2월 15일 ~ 20일)
+    - 홈페이지에서 개별 조회 가능하며 고지서는 출력하거나 입학관리팀에서 수령할 수 있습니다.
+    - 등록장소는 학교 지정은행이며, 등록금 고지서에 기재된 정보를 참고해야 합니다.
+이 일정을 준수하여 정시 모집에 참여하시기 바랍니다. 자세한 내용은 입학안내 홈페이지에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 세부 사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 포인트를 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 흐름을 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.9072958924930437</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024년 1월 2일 (화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 날짜: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감일 18시까지
+   - 비고: http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com
+3. **서류 제출**:
+   - 날짜: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 레저스포츠학과, 태권도학과**:
+   - 날짜: 2024년 1월 16일 (화)
+   - 비고: 대기실 및 입실시간 안내 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 디자인조형학과, 체육학과**:
+   - 날짜: 2024년 1월 17일 (수)
+   - 비고: 대기실 및 입실시간 안내 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024년 2월 2일 (금) 14:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+7. **합격자 등록**:
+   - 날짜: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화), 은행마감시간 내
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+8. **충원 합격자 발표 및 등록**:
+   - 1차: 2024년 2월 14일 (수) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 1차: 2024년 2월 14일 (수) 09:00 ~ 16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 2차: 2024년 2월 15일 (목) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 2차: 2024년 2월 15일 (목) 09:00 ~ 16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 3차 이후: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+9. **3차 이후 충원 합격자 등록**:
+   - 개별 전화 통보 시 안내
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+위와 같은 일정을 따르며, 정시 모집의 주요 단계를 진행합니다. 자세한 내용은 입학안내 홈페이지를 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 미응시자가 지원할 수 있는 전형에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 수능 미응시자는 지원이 불가능하다고 명확히 언급하고 있으며, 생성된 응답은 이를 반박하는 내용을 담고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충하는 정보를 제공합니다. 원문에서 수능 미응시자는 지원이 불가능하다고 명시되어 있는데, 생성된 응답은 수능 미응시자가 지원할 수 있는 전형이 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성은 있지만 신뢰할 수 없는 정보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 신뢰성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 정보를 나열하고 있으나, 원문과의 일관성이 부족하여 논리적 흐름이 약해 보입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다르며, 수능 미응시자가 지원할 수 있는 전형에 대한 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 맥락을 잘못 해석하고 있으며, 수능 미응시자에 대한 잘못된 정보를 제공하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.5953607568270574</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 수능 미응시자도 지원이 가능한 특별한 전형이 명확히 언급되어 있지 않습니다. 하지만 일반적으로 수능 미응시자도 지원할 수 있는 전형으로는 학생부종합전형 등이 있습니다.
+제공된 데이터에서 학생부종합전형에 대한 정보가 포함되어 있으므로, 이와 관련하여 답변을 드리겠습니다:
+1. **&lt;나&gt;군 실기/실적(일반학생전형)**: 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과를 제외한 전 모집단위에서 지원 가능합니다.
+2. **&lt;나&gt;군 학생부교과(농어촌학생전형)**: 전 모집단위에서 지원 가능하며, 수능 미응시자도 지원이 가능할 것으로 추정됩니다.
+3. **&lt;나&gt;군 학생부종합(평생학습자전형), &lt;나&gt;군 학생부종합(성인학습자(정원내)전형), &lt;나&gt;군 학생부종합(성인학습자(정원외)전형), &lt;나&gt;군 학생부종합(재직자전형), &lt;나&gt;군 학생부종합(조기취업형계약학과전형)**: 이들 전형은 주로 평생학습자, 성인학습자, 재직자, 조기취업형 계약학과 등 특별한 배경을 가진 지원자를 대상으로 하므로, 수능 미응시자도 지원이 가능할 것으로 보입니다.
+따라서, 동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 학생부종합전형인 것으로 판단됩니다. 자세한 내용은 동의대학교 입학처 웹사이트를 방문하여 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 전년도 전자공학과의 충원 합격 차수에 대한 정보가 없다는 사실을 언급하고 있지만, 원문에서 제공된 "36명까지 이루어졌습니다"라는 구체적인 사실을 누락하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문은 충원 합격 차수에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 그에 대한 구체적인 세부사항을 요구하는 내용으로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 제공된 구체적인 정보(36명까지 이루어졌다는 내용)를 포함하지 않아 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 중국어로 되어 있어 한국어 사용자에게는 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 언어가 혼합되어 있어 일관된 흐름이 부족합니다. 한국어와 중국어가 섞여 있어 독자가 이해하기 어려울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공된 구체적인 사실(36명까지 이루어졌다는 내용)을 누락하고 있으며, 원문과 상충하는 내용을 포함하고 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 다차원 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원문과의 의미적 일치가 부족하며, 특히 다른 언어가 혼합되어 있어 의미 전달이 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 일부 문장이 명확하지만, 언어 혼합으로 인해 이해하기 어려운 부분이 있어 점수가 중간입니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.5451227369327633</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 전년도 전자공학과 충원 합격이 몇 차까지 이루어졌는지的具体信息中没有提到去年电子工程学专业补录合格是在哪几次完成的。您提供的信息里没有关于这个具体细节的内容。建议直接访问学校官网或联系招生办公室获取准确信息。您可以参考以下链接进行查询：https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호가 포함되어 있다고 명시된 원본 텍스트와 상반되는 내용을 담고 있습니다. 원본 텍스트에 명확히 제시된 전화번호를 무시하고, 전화번호가 포함되어 있지 않다고 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 모순됩니다. 원본 텍스트는 전화번호를 제공하고 있지만, 생성된 응답은 전화번호가 없다고 주장합니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 전화번호를 제공하지 않는다는 잘못된 정보로 인해 관련성이 낮습니다. 원본 텍스트의 핵심 정보를 무시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 불일치로 인해 일관된 흐름이 부족합니다. 전화번호가 없다는 주장은 원본 텍스트와의 연결이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 전화번호가 포함되어 있다는 사실을 무시하고 있습니다. 이는 심각한 부정확성을 나타냅니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트의 핵심 정보를 잘못 전달하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 해석하고 있습니다. 전화번호가 없다는 주장은 원본의 의미와 상충합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.6854898685900142</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다. 필요하신 전화번호를 확인하려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문해 주세요. 해당 페이지에서 입학처 연락처 정보를 찾을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우에 대한 처리 방식을 잘못 설명하고 있습니다. 원문에서는 전화 연락이 두절되면 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리된다고 명시하고 있지만, 생성된 응답에서는 해당 합격자를 처리하지 않고 다시 입학공고를 통해 공개한다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문에서는 전화 통화가 되지 않을 경우의 처리 방식이 명확히 설명되어 있지만, 생성된 응답은 이와 상반된 내용을 담고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 언급된 중요한 세부사항을 누락하고 있습니다. 전화 통화가 되지 않는 경우의 처리 방식에 대한 정보가 부족하여 다소 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 다소 부족합니다. 원문에서의 정보와 생성된 응답의 정보가 서로 연결되지 않아 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 사실적으로 일치하지 않습니다. 전화 통화가 되지 않는 경우의 처리 방식에 대한 설명이 잘못되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 의미적으로 부적절한 부분이 있습니다. 원문에서의 의도와 다르게 해석될 수 있는 내용이 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 원문과의 불일치로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.5622195245166927</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시, 전화 통화가 되지 않는 경우는 해당 합격자를 처리하지 않습니다. 다시 입학공고를 통해 공개하여 최종 합격자를 결정하게 됩니다.
+만약 자세한 내용을 알고 싶다면 [입학사정관 홈페이지](https://ipsi.deu.ac.kr/main.do)를 방문해 보시는 것이 좋습니다. 해당 사이트에서 더 구체적인 안내가 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 필요한 서류 목록을 정확하게 나열하고 있습니다. 그러나 "유형에 따라 다르게 요구됩니다"라는 문구는 원본 텍스트에서 명시된 내용이 아니므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되게 서류를 나열하고 있으며, 내용의 흐름도 잘 유지되고 있습니다. 다만, "유형에 따라 다르게 요구됩니다"라는 표현이 원본의 내용을 약간 왜곡할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 "유형에 따라 다르게 요구됩니다"라는 문구가 전체적인 흐름에 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, "유형에 따라 다르게 요구됩니다"라는 표현이 원본의 정확한 내용을 반영하지 않기 때문에 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 잘 수행하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, "유형에 따라 다르게 요구됩니다"라는 표현이 다소 부적절할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문구가 혼란을 줄 수 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.7600522031969188</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 유형에 따라 다르게 요구됩니다. 
+1. **6년 과정**:
+   - 지원자 본인의 가족관계증명서 1부
+   - 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+   - 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부)를 추가로 제출
+   - 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부를 추가 제출
+2. **12년 과정**:
+   - 지원자 본인의 주민등록초본 1부
+   - 초등학교 학교생활기록부 1부
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+위와 같은 서류를 정원외 지원자격과 제출서류, 최종 등록자 추가 제출서류에 따라 요구받으므로 해당 내용을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 필요한 서류 목록을 정확하게 나열하고 있습니다. 그러나 "주소변동사항이 포함된 서류를 발급받아 제출해야 합니다"라는 중요한 세부사항이 누락되었습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 필요한 서류에 대한 정보가 일치합니다. 다만, 추가적인 발급 방법에 대한 설명이 포함되어 있어 약간의 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 목록이 명확하게 나열되어 있습니다. 다만, 추가적인 발급 방법에 대한 설명이 포함되어 있어 약간의 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 일부 세부사항이 누락되어 있어 완전한 정확성에는 미치지 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부사항의 누락이 아쉬운 점입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 필요한 서류에 대한 정보를 적절하게 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 추가 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8415062596801083</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 필요한 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+   - 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능
+이러한 서류를 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 기회균등 전형에 대한 정보가 없다고 언급하고 있지만, 원본 텍스트는 동의대학교의 정시 모집 전형에 기회균등 전형이 존재하지 않는다고 명확히 설명하고 있습니다. 따라서 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 기회균등 전형이 존재하지 않는다고 명시하고 있지만, 생성된 응답은 저소득 기회균등 전형에 대한 언급이 없다고 하여 서로 모순됩니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 기회균등 전형에 대한 직접적인 언급이 없고, 다른 정보에 초점을 맞추고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 괜찮지만, 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려울 수 있습니다. 따라서 유창성 점수는 중간 정도로 평가합니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 논리적인 흐름이 부족하고, 원본 텍스트와의 연결이 약하여 일관성이 떨어집니다. 원본 텍스트의 주제를 명확히 반영하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 기회균등 전형이 존재하지 않는다는 사실을 잘못 해석하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 기회균등 전형에 대한 정보가 없다는 점에서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 한국어 사용자에게는 중국어로 작성되어 있어 이해하기 어려운 점이 있습니다. 따라서 이해 가능성 점수는 중간 정도로 평가합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.4148570152440958</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到关于“低收入机会均等类型”的招生计划。根据您提供的内容，似乎主要描述了不同类型的入学考试、录取流程以及各专业的招生名额等信息，并没有特别提及针对低收入家庭学生的特殊招生政策。
+如果您想了解有关低收入家庭学生在特定大学或学院的特殊支持和招生政策，请访问该学校的官方网站 https://ipsi. deu. ac. kr/main. do 或直接联系学校获取详细信息。</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 최저등급의 절사 여부에 대한 구체적인 정보를 제공하지 않으며, 원본 텍스트에서 언급된 내용과 상충하는 정보를 포함하고 있습니다. 원본 텍스트는 절사 여부에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 2.5 등급이 절사되지 않고 그대로 반영된다고 주장하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 절사 여부에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 2.5 등급이 절사되지 않는다고 주장하여 모순을 일으킵니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있지만, 원본 텍스트의 핵심 내용을 왜곡하여 제공하고 있습니다. 원본 텍스트의 정보가 부족하다는 점을 간과하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 표현되어 있어 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 명확하게 연결되지 않아 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 정보를 포함하고 있습니다. 원본 텍스트는 절사 여부에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 이를 반박하는 내용을 담고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 원본 텍스트와의 관계가 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락을 무시하고 잘못된 정보를 제공하고 있어 의미적으로 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.6345140228516883</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5 등급은 절사되지 않고 그대로 반영됩니다. 수능 사탐(사회탐구)의 경우 등급이 실수로 표현될 수 있으며, 이 경우에는 평균산출 시 그대로 반영합니다. 따라서 2.5 등급은 2등급과 3등급을 가중평균한 결과가 될 수 있습니다.
+만약 특정 교육기관에서 사탐 등급을 절사하는 방침이 있다면 해당 기관의 정책을 따르는 것이 좋습니다. 하지만 일반적으로는 실수로 표현된 등급 그대로 반영됩니다.
+더 자세한 내용은 https://ipsi. deu. ac. kr/main. do를 참조하시거나 해당 교육기관에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 발표 일정과 방식에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 발표 차수와 일정에 대한 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 직접적으로 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 발표 일정이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.8458264368869531</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 3차로 이루어집니다. 
+1. **1차 충원 합격자 발표**: 2024년 2월 14일(수) 오전 9시에 진행됩니다.
+2. **2차 충원 합격자 발표**: 2024년 2월 15일(목) 오전 9시에 진행됩니다.
+3. **3차 이후 충원 합격자 발표**: 이는 2024년 2월 15일(목) 오후 7시부터 2024년 2월 20일(화) 오후 6시까지 개별 전화 통보를 통해 이루어집니다.
+이와 같이 총 3차에 걸쳐 정시 충원 합격자 발표가 이루어지며, 최종적으로는 개별 전화 통보를 통해 합격자를 발표합니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 e-비즈니스학과의 수능 성적 기준에 대한 정보를 제공하지 않으며, 원본 텍스트에서 제공된 평균 점수와 관련된 내용을 무시하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 원본에서 제공된 정보에 대한 언급이 없습니다. 이는 일관성 점수를 낮춥니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 e-비즈니스학과의 수능 성적 기준에 대한 질문에 대한 답변을 시도하지만, 원본 텍스트의 구체적인 정보와는 관련이 적습니다. 따라서 중간 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 연관성이 부족하여 일관된 흐름이 떨어집니다. 따라서 중간 점수를 부여합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보를 반영하지 않으며, 수능 성적 기준에 대한 정확한 정보를 제공하지 않습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서의 품질이 낮으며, 사실성, 일관성, 정확성 모두에서 부족함이 있습니다. 따라서 낮은 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 따라서 중간 점수를 부여합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 이해하기 쉬우며, 명확하게 작성되어 있습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.5277244442604151</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터로는 e비즈니스학과의 수능 성적 기준을 확인할 수 없습니다. e비즈니스학과에 대한 수능 최저기준 정보가 필요합니다.
+이 정보를 얻으려면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 해당 학과의 정시 모집 전형에서의 수능 최저 기준을 확인해 보세요.
+만약 웹사이트에서도 찾지 못한 경우, 대학 측에 직접 문의하는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 e비즈니스학과의 정시 등급 정보가 없다고 언급하고 있지만, 원본 텍스트에서는 정시 등급이 5.3일 경우 합격하기 어려울 수 있다고 명확히 언급하고 있습니다. 따라서 일부 사실이 누락되었고, 원본의 정보를 완전히 반영하지 못했습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 e비즈니스학과의 정시 등급 정보가 없다고 하면서도, 미디어커뮤니케이션학과와 비교하여 합격 가능성을 언급하고 있습니다. 이는 원본 텍스트의 정보와 일치하지 않으며, 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과와 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족합니다. 그러나 관련된 다른 학과의 정보를 제공하여 어느 정도 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트의 핵심 정보와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 일부 반영하고 있지만, e비즈니스학과의 정시 등급에 대한 명확한 정보를 제공하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 핵심 정보를 충분히 반영하지 못해 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 특정 정보의 누락으로 인해 의미 전달이 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.6609639393531815</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 e비즈니스학과에 대한 정시 등급 정보가 제공되지 않았습니다. 따라서 정확한 최초합격 가능성을 판단하기 어렵습니다.
+e비즈니스학과는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과를 제외한 전 모집단위에 해당하므로, "전 모집단위(디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과 제외)"의 정보를 참고할 수 있습니다.
+제공된 정보 중에서 e비즈니스학과와 가장 유사한 학과는 미디어커뮤니케이션학과입니다. 미디어커뮤니케이션학과의 정시 등급 평균은 4.22이며, 표준 편차가 0.14로 매우 안정적입니다.
+따라서 e비즈니스학과의 정시 등급이 5.3이라면, 미디어커뮤니케이션학과보다 높은 점수를 받았다는 것을 의미합니다. 이 경우 최초합격 가능성은 상대적으로 높아 보입니다.
+하지만, e비즈니스학과의 정시 등급 정보가 없으므로, 확실한 판단을 위해서는 해당 학과의 정시 등급 정보를 확인해야 합니다. 만약 정시 등급 정보가 제공되지 않으면, 입학사정관제나 다른 전형 등을 통해 최초합격 가능성 여부를 판단하는 것이 좋습니다.
+더 자세한 정보를 얻기 위해 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비합격 여부를 판단하기 어렵다고 언급하고 있지만, 원본 텍스트에서 제시된 예비 38번의 상황에 대한 구체적인 정보는 누락되어 있습니다. 원본 텍스트는 예비 38번의 합격 가능성이 낮다고 명확히 언급하고 있으나, 생성된 응답은 일반적인 조언을 제공하고 있어 사실적 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 완전히 반영하지 않고, 예비 38번의 상황에 대한 구체적인 언급이 부족합니다. 원본 텍스트는 예비 38번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 그에 대한 명확한 답변을 제공하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비합격 여부에 대한 일반적인 정보를 제공하고 있으며, 관련된 요소들을 언급하고 있습니다. 그러나 원본 텍스트의 특정 상황에 대한 직접적인 답변이 부족하여 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원본 텍스트의 특정 상황에 대한 언급이 부족하여 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 예비합격 여부에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 구체적인 사실을 반영하지 않아 정확성이 떨어집니다. 예비 38번의 합격 가능성이 낮다는 명확한 정보가 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 원본 텍스트의 구체적인 사실을 반영하지 않아 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 맞는 의미를 전달하고 있으나, 특정 상황에 대한 명확한 언급이 부족하여 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.4918279825745263</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 특정 학생의 예비합격 여부를 정확히 판단하기 어렵습니다. 전형 요소 반영 비율, 모집인원, 지원자의 성적 등 다양한 요인이 고려됩니다.
+이정도라는 표현에서 지원자의 성적이 어느 수준인지 알 수 없으므로, 다음과 같은 점들을 확인해보시는 것이 좋겠습니다:
+1. **성적**: 지원자의 수능 성적과 실기 성적(만 해당 전형일 경우)을 확인하세요.
+2. **모집인원**: 각 모집단위의 정원 내 모집 인원을 확인하세요.
+3. **전형요소 반영 비율**: 지원자가 해당하는 전형의 전형 요소 반영 비율을 확인하세요.
+예를 들어, 레저스포츠학과의 경우:
+- 수능 30% + 실기 70% (실기/실적 전형일 경우)
+- 정원 내 모집 인원이 6명 이내
+따라서 지원자의 성적이 해당 전형의 기준을 충족하고, 정원 내 모집 인원보다 적은 수의 지원자가 있는 경우에는 예비합격 가능성이 높습니다.
+더 자세한 정보를 얻기 위해서는 입학처 홈페이지 또는 학교 관계자에게 문의하시는 것이 좋겠습니다. 필요하다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 링크를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 성적과 경쟁률에 대한 정보를 제공하지만, 평균 성적과 표준 편차에 대한 구체적인 수치가 원본 텍스트와 일치하지 않습니다. 원본 텍스트에서는 영어 등급 평균과 수능 4개 영역 등급 평균에 대한 정보가 제공되었으나, 생성된 응답에서는 다른 수치가 사용되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 제공된 정보의 일관성이 부족합니다. 특히, 평균 성적과 관련된 수치가 다르기 때문에 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 간호학과의 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 일부 정보가 원본 텍스트와 일치하지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균 성적과 관련된 수치가 원본 텍스트와 다르기 때문에 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 주제에 대한 적절한 정보와 논리적 흐름을 가지고 있습니다. 그러나 일부 수치의 불일치로 인해 점수가 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 일부 정보의 불일치로 인해 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 정보의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.6744653518581417</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>3.44이라는 점수로 동의대학교 간호학과에 합격할 확률은 낮을 수 있습니다. 간호학과는 경쟁률이 높고, 평균 성적도 상대적으로 높습니다.
+간호학과의 평균 성적과 표준 편차를 확인해보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 303.44, 표준 편차 10.34
+이 데이터를 바탕으로 3.44의 성적은 평균보다 약간 낮습니다. 하지만 표준 편차를 고려하면 여전히 합격 가능성을 배제할 수는 없습니다.
+합격 가능성에 대한 정확한 판단을 위해서는:
+1. 최근 몇 년 동안 간호학과의 최저 합격 점수를 확인해보세요.
+2. 지원자의 성적 분포와 경쟁률을 고려하세요.
+3. 추가로 제공되는 정보나 특별한 상황이 있는지 확인하세요.
+따라서, 3.44의 성적만으로는 확실하게 합격할 수 없다고 단정 짓기는 어렵습니다. 더 많은 정보를 수집하고 분석하는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 잘못 해석하고 있습니다. 원문에서는 2.52라는 점수가 평균보다 높다고 언급했으나, 생성된 응답에서는 이 점수가 평균보다 낮다고 주장하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문에서는 2.52라는 점수가 간호학과의 평균 등급보다 높다고 하였으나, 생성된 응답에서는 이 점수가 낮다고 주장하고 있습니다. 이러한 상반된 정보는 일관성을 결여하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있습니다. 그러나 원문에서 제공된 구체적인 통계와는 다소 다른 방향으로 논의하고 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 내용을 가지고 있으나, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름이 매끄럽지 않으며, 주제 전환이 자연스럽지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 상충하는 내용을 포함하고 있습니다. 특히, 점수에 대한 해석이 잘못되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있습니다. 사실성, 일관성, 정확성에서 큰 문제를 보이고 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 불일치로 인해 일부 내용이 부적절하게 해석되고 있습니다. 따라서 의미적 적합성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 내용의 모호함으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.5844487558411007</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2.52라는 점수를 가지고 동의대학교 간호학과에 최종 합격할 수 있을지는 확실하지 않습니다. 간호학과의 경우, 지원 인원이 많고 경쟁률이 높습니다.
+간호학과의 관련 통계를 보면:
+- 평균 점수: 353.48
+- 표준 편차: 4.66
+평균 점수가 353.48이고, 표준 편차가 4.66이라는 것을 고려하면, 2.52라는 점수는 평균보다 상당히 낮은 수치입니다.
+따라서, 2.52라는 점수로 간호학과에 최종 합격하기 위해서는 다음과 같은 조건들이 필요할 것입니다:
+1. 특별한 경력이나 성취가 있어야 합니다.
+2. 다른 과목의 성적이 높아야 합니다.
+하지만, 이는 단순히 점수만으로 판단하는 것이 아니라, 전체 지원자의 성적 분포와 개인의 특성 등을 고려해야 하는 복잡한 문제입니다. 따라서, 최종 합격 가능성은 매우 낮다고 추정할 수 있습니다.
+추가적으로, 동의대학교 간호학과에 지원하려면 전형료(수수료 포함) 35,000원을 지불해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 등급에 대한 정보와 관련하여 잘못된 해석을 포함하고 있습니다. 원문에서는 3.7이 평균 등급보다 낮다고 명시하고 있지만, 생성된 응답에서는 3.7이 충분히 좋은 성적이라고 주장하고 있습니다. 이는 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충하는 내용을 포함하고 있습니다. 원문에서는 3.7이 평균 등급보다 낮다고 하였으나, 생성된 응답에서는 3.7이 좋은 성적이라고 언급하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 원문에서 제시된 평균 등급과의 관계를 잘못 해석하여 다소 비효율적인 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 부분이 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름이 매끄럽지 않게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 3.7이라는 성적이 평균보다 낮다는 점을 간과하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 불일치로 인해 일부 내용이 부적절하게 해석되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.6665825618538613</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>3.7이라는 성적은 일반적으로 중등 교육 기간 동안의 평균 점수를 의미하는 것 같습니다. 하지만 간호학과에 지원하려면 정시 모집군이 아닌 다른 전형을 통해 지원해야 합니다.
+현재 제공된 정보로는 간호학과와 관련된 특별전형이나 조기취업형 계약학과 등이 없습니다. 따라서 간호학과를 정시로 지원하는 경우, 해당 학과의 정시 모집군에서 요구하는 성적 기준을 충족해야 합니다.
+간호학과의 정시 모집군 성적 기준은 대체적으로 중등 교육 기간 동안의 평균 점수가 3.5 이상이어야 한다는 것을 확인할 수 있습니다. 따라서 3.7이라는 성적은 간호학과에 지원하는 데 충분히 좋을 것으로 보입니다.
+하지만 정확한 정보를 얻기 위해서는 해당 대학의 입시 홈페이지나 학부 관계자에게 직접 문의하시는 것이 가장 확실합니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 확인해보시거나, 대학 입시 상담 센터에 연락하시면 도움을 받으실 수 있습니다.
+따라서 3.7이라는 성적은 간호학과 정시 모집군에서 충분히 좋은 성적일 것으로 보이지만, 최종 결정을 내리기 위해서는 대학 입시 홈페이지나 학부 관계자에게 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 간호학과의 평균 점수와 표준 편차를 언급하고 있지만, 원본 텍스트에서 제공된 정보와는 일치하지 않습니다. 원본 텍스트는 2.58이라는 점수가 평균보다 높다고 언급하고 있으나, 생성된 응답은 이 점수가 낮다고 잘못 해석하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 2.58이 평균보다 높은 성적이라고 명시하고 있지만, 생성된 응답은 이를 반박하며 합격 가능성이 낮다고 주장합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 간호학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용과는 다소 벗어나 있습니다. 그러나 여전히 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 내용을 제공하지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름은 있지만, 주장의 근거가 약해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상반되는 내용을 포함하고 있습니다. 2.58이라는 점수가 평균보다 낮다고 잘못 해석하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 원본 텍스트와의 불일치로 인해 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와는 다소 다르게 해석되고 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 내용이 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.6203885430456018</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2.58이라는 점수를 가지고 동의대학교 간호학과에 정시 전형으로 합격할 확률을 판단하기 위해서는 해당 학과의 평균 점수와 표준 편차 등을 고려해야 합니다.
+주어진 데이터에서 동의대학교 간호학과의 정보를 찾아보면, 2024학년도 모집단위에 대한 "국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합"의 평균이 353.48이고 표준 편차는 4.66입니다.
+현재 제시된 점수인 2.58은 "국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합"의 평균과 비교했을 때 상당히 낮습니다. 이는 동의대학교 간호학과에 정시 전형으로 합격하기 어렵다는 것을 의미합니다.
+하지만, 실제 합격 가능성은 여러 요인에 따라 달라질 수 있으므로, 최종 결정을 내리기 위해서는 동의대학교 간호학과의 정시 모집 규모와 지원 인원 등을 고려해야 합니다. 또한, 다른 전형(예: 특별전형 등)으로 합격 가능성도 함께 검토해 보는 것이 좋습니다.
+더 자세한 정보나 추가적인 조언이 필요하시다면, https://ipsi. deu. ac. kr/main. do를 참조하여 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 게임공학과에 대한 모집 정보가 없다고 언급하고 있지만, 원본 텍스트에서는 충원합격에 대한 구체적인 정보가 제공되고 있습니다. 따라서 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 상충하는 정보를 제공합니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 그러한 정보를 포함하지 않고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 핵심 정보를 놓치고 있습니다. 예비 7번의 합격 가능성에 대한 직접적인 언급이 없기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않고 있으며, 중요한 정보를 누락하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 관련성이 떨어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.6095277663802232</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>현재 제공된 정보로는 게임공학과에 대한 모집 정보가 없습니다. 게임공학과를 지원하려면, 해당 학과의 정원 내외 모집 인원 및 전형 요소 반영 비율 등을 확인해야 합니다.
+이 정보를 얻기 위해서는 다음 웹사이트를 참조해 보시는 것이 좋습니다:
+https://ipsi.deu.ac.kr/main.do
+또한, 게임공학과의 정원 내외 모집 인원 및 전형 요소 반영 비율 등을 직접 확인하시면 더 정확한 답변을 드릴 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적이 평균 이상이라는 점을 언급하고 있지만, 원본 텍스트에서 제공된 구체적인 수치(영어 등급 평균 3.25, 수능 4개 영역 등급 평균 4.78)에 대한 언급이 부족합니다. 또한, 실기나 면접 등의 추가 평가 요소에 대한 언급은 원본 텍스트에 명시되어 있지 않으므로, 이 부분에서 사실성과 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 추가 평가 요소에 대한 언급이 원본 텍스트와 일치하지 않으며, 이로 인해 일관성이 떨어집니다. 원본 텍스트는 수능 성적에 대한 정보에 집중하고 있으나, 생성된 응답은 다른 요소를 강조하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본 텍스트에서 제공된 구체적인 정보에 대한 언급이 부족하여 다소 관련성이 떨어집니다. 그러나 수능 성적과 관련된 추가 정보를 요청하는 부분은 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 점이 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약해지는 부분이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적이 평균 이상이라는 점을 언급하지만, 원본 텍스트의 구체적인 수치와 비교할 때 정확성이 떨어집니다. 또한, 실기나 면접 등의 추가 평가 요소에 대한 언급은 원본 텍스트에 명시되어 있지 않으므로 정확성이 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 원본 텍스트의 구체적인 정보가 누락되어 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.6330046019434941</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 게임공학과의 모집요강을 확인하지 못했으므로 확실한 답변을 드리기 어렵습니다. 게임공학과의 경우, 일반적으로 수능 성적 외에도 실기나 면접 등이 포함될 수 있습니다.
+다만, 현재 제공된 정보를 바탕으로 다음과 같은 점들을 고려해볼 수 있습니다:
+1. **수능 성적 평균**: 4.16은 평균 이상의 성적이므로 경쟁력이 있을 것입니다.
+2. **모집인원 및 지원 인원**: 모집인원과 지원 인원을 확인하여 경쟁률을 예측할 수 있습니다.
+게임공학과의 정시 전형에 대한 자세한 정보를 확인하려면 동의대학교 입학처 웹사이트나 학교 관계자에게 문의하시는 것이 좋습니다. 특히, 실기나 면접 등 추가 평가 요소가 포함되어 있는지 확인해야 합니다.
+추가로 필요한 정보는 다음과 같습니다:
+- 게임공학과의 모집인원
+- 지원 인원
+- 수능 성적 기준
+- 실기나 면접 등의 평가 요소
+이런 정보를 바탕으로 더 정확한 판단을 내릴 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 평균 점수와 표준 편차에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 영어 등급 평균과 수능 4개 영역 등급 평균에 대한 정보는 포함되어 있지 않습니다. 따라서 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 평균 점수와 표준 편차에 대한 정보가 추가되어 있어 일관성이 떨어집니다. 원본 텍스트의 평균 등급과는 다른 수치를 제시하고 있어 일관성 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 주어진 질문에 대해 매우 관련성이 높습니다. 경영정보학과의 합격 가능성에 대한 정보를 제공하며, 주어진 성적에 대한 평가를 포함하고 있어 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주어진 성적에 대한 평가가 일관되게 이어집니다. 그러나 일부 정보가 추가되어 있어 완전한 일관성은 부족할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 평균 점수와 표준 편차에 대한 정보를 제공하지만, 원본 텍스트의 사실과는 다소 차이가 있습니다. 따라서 정확성 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있으며, 관련성과 유창성에서 강점을 보입니다. 그러나 사실성과 일관성에서 약간의 부족함이 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주어진 질문에 적절하게 의미를 전달하고 있으며, 전반적으로 맥락에 맞는 내용을 포함하고 있습니다. 그러나 일부 정보가 추가되어 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 약간의 복잡한 표현이 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.6970233523893432</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과에 대한 정보를 바탕으로 답변 드리겠습니다.
+주어진 성적(국어+수학+탐구 3.75)은 평균 점수가 3.83이고, 표준 편차가 0.44인 상황에서 볼 때, 이 성적이 충분히 경쟁력을 갖추고 있습니다.
+2024학년도 동의대학교 인문사회과학대학 경영정보학과의 최초합격자 정보를 보면:
+- 평균 점수: 3.83
+- 표준 편차: 0.44
+주신 성적(3.75)은 이 평균점수보다 약간 낮지만, 표준 편차를 고려하면 여전히 경쟁력을 갖추고 있습니다.
+따라서 주신 성적(3.75)으로 최초등록자로 가능할 것으로 보입니다. 하지만 확실한 것은 입학사정관의 평가와 경쟁률에 따라 결정되므로, 최종 결과는 입학사정관의 판단에 달려 있습니다.
+추가적으로, 동의대학교에서는 서류평가와 면접평가를 통해 학업역량과 전공적합성을 종합적으로 평가하므로, 주신 성적이 경쟁력을 갖춘 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 최저학력 기준에 대한 정보가 부족하다고 언급하고 있지만, 원본 텍스트에서는 경영정보학과의 평균 등급이 3.88이라는 구체적인 수치가 제공되고 있습니다. 따라서 4.2의 성적이 평균보다 낮다는 점은 정확하지만, 최저학력 기준에 대한 정보가 없다는 주장은 원본 텍스트의 내용을 완전히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 수능 최저학력 기준에 대한 언급이 원본 텍스트와 일치하지 않습니다. 원본 텍스트는 4.2의 성적이 낮다고 명시하고 있으나, 생성된 응답은 이를 판단하기 어렵다고 하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 추가적인 정보 요청과 함께 관련 웹사이트를 안내하고 있습니다. 그러나 원본 텍스트의 핵심 내용을 완전히 반영하지 못해 약간의 관련성 부족이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 수능 최저학력 기준에 대한 정보가 없다는 주장은 원본 텍스트의 내용을 정확히 반영하지 못합니다. 따라서 정확성 점수는 중간 정도로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 다소 부족함이 있으며, 관련성과 유창성은 양호하지만 전반적인 품질은 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 원본 텍스트의 핵심 내용을 완전히 반영하지 못해 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 다만, 원본 텍스트와의 연결이 약간 부족하여 이해에 혼란을 줄 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.6849233150563327</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과의 경우, 수능 최저학력 기준이 4.2 이상이라는 정보가 제공되지 않았습니다. 따라서 현재 주어진 정보만으로는 정시 성적이 4.2일 때 최초등록자로 가능할지 여부를 판단하기 어렵습니다.
+추가적인 정보가 필요합니다:
+1. 해당 모집단위의 수능 최저학력 기준이 무엇인지 확인해야 합니다.
+2. 지원자의 전형별 경쟁률과 지원 인원, 모집인원 등을 고려해야 합니다.
+만약 더 자세한 정보를 원하시면, 동의대학교 입학처 웹사이트(https://ipsi. deu. ac. kr/main. do)에서 확인해 보시는 것이 좋습니다. 해당 사이트에서는 각 학과별 정시 모집인원, 최저학력 기준 등 자세한 정보를 제공하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 경영정보학과의 합격 가능성을 판단하기 위해 필요한 정보를 언급하고 있지만, 원본 텍스트에서 제공된 평균 등급에 대한 정보와 정시 성적이 평균보다 낮다는 점을 명확히 반영하지 못하고 있습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, 정시 성적이 평균보다 낮다는 점을 명확히 언급하지 않아 일관성이 떨어집니다. 또한, 제공된 정보만으로는 합격 가능성을 판단하기 어렵다는 주장은 원본 텍스트의 결론과 상충합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교 경영정보학과의 합격 가능성에 대한 질문에 직접적으로 관련된 정보를 제공합니다. 필요한 추가 정보와 조언을 제시하여 주제와 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 원본 텍스트의 핵심 정보를 충분히 반영하지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 정시 성적이 평균보다 낮다는 점을 명확히 언급하지 않아 정확성이 떨어집니다. 또한, 수능 4개 영역에서 5등급을 받았다는 해석은 다소 부정확할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성과 유창성에서 강점을 보입니다. 그러나 사실성과 일관성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보가 누락되어 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.7033977298035764</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 경영정보학과 일반학생전형에 대한 최신 합격 기준 점수를 확인하기 어렵습니다. 정시 성적이 5.33이면, 이는 대략적으로 수능 4개 영역 중에서 각 영역별로 5등급을 받았음을 의미합니다.
+동의대학교 경영정보학과 일반학생전형에 합격 가능성을 판단하기 위해서는 다음과 같은 정보가 필요합니다:
+1. 동의대학교 경영정보학과 일반학생전형의 최신 합격 기준 점수
+2. 해당 전형에서 수능 4개 영역별로 어떤 가산점이 적용되는지
+위와 같이 필요한 정보를 확인한 후, 자신의 성적과 합격 기준 점수를 비교하여 판단해야 합니다.
+만약 최신 합격 기준 점수가 제공되지 않다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 정보를 확인하거나, 동의대학교 입학처에 직접 문의하는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 바이오응용공학부의 정시 모집군 변경 사항에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급(영어 3.82, 수능 4개 영역 4.74)과 관련된 정보는 포함되어 있지 않다. 따라서, 일부 사실이 누락되어 있어 점수를 3으로 평가하였다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 정시 모집군 변경에 대한 정보가 추가되어 있어 일관성이 떨어진다. 원본 텍스트의 핵심 내용인 합격 가능성에 대한 언급이 부족하여 점수를 3으로 평가하였다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부에 대한 정보를 제공하고 있으며, 질문의 맥락과 관련이 있다. 그러나 원본 텍스트의 주요 포인트인 합격 가능성에 대한 정보가 부족하여 점수를 4로 평가하였다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있어 점수를 4로 평가하였다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달된다. 그러나 원본 텍스트의 핵심 내용과의 연결이 부족하여 점수를 4로 평가하였다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 평균 등급과 관련된 정보가 누락되어 있어 정확성에 대한 점수를 3으로 평가하였다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보가 누락되어 있어 전반적인 품질이 떨어진다. 따라서 점수를 3으로 평가하였다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으나, 원본 텍스트의 핵심 내용과의 연결이 부족하여 점수를 4로 평가하였다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있다. 그러나 일부 문장이 길어질 수 있어 점수를 4로 평가하였다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.7060044426234082</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학과에 대한 정시 모집군 정보를 확인해보겠습니다.
+바이오응용공학과는 2023년도에는 '가'군으로 정시모집이 이루어졌으나, 2024년도에는 '다'군으로 변경되었습니다. 따라서, 현재의 바이오응용공학과의 정시 모집군은 '다'군입니다.
+정시모집에서 성적 기준을 확인하기 위해서는 해당 학교의 입학처 홈페이지나 공식 안내서를 참조해야 합니다. 하지만 일반적으로 정시모집에서는 수능 점수와 실기 점수가 함께 반영되며, 일부 전형에서는 학생부 교과 성적도 고려할 수 있습니다.
+현재 제공된 정보로는 동의대학교 바이오응용공학과에 대한 정시 모집군 변경 사항만 확인하였습니다. 성적 3.33 정도라면 최초등록자로 가능할지는 확실하지 않습니다. 입학처 홈페이지를 방문하여 자세한 전형 요건을 확인하시거나, 학교 관계자에게 직접 문의하시는 것이 가장 정확한 답변을 얻는 방법입니다.
+더 궁금하신 사항이 있으시면 https://ipsi. deu. ac. kr/main. do 를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 관련된 정보를 포함하고 있으며, 정시 등급 4.4에 대한 합격 가능성을 언급하고 있습니다. 그러나 "충원 합격하기 어려울 것"이라는 표현은 다소 주관적이며, 명확한 수치적 근거가 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘 반영하고 있으며, 방사선학과의 경쟁률과 고득점자 선호 경향에 대한 추가 정보를 제공합니다. 그러나 일부 내용은 원본 텍스트와의 일관성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 방사선학과에 지원하는 것과 관련된 유용한 정보를 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으나, 일부 문장 간의 연결이 다소 약할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 관련된 정보를 정확하게 반영하고 있으나, 주관적인 해석이 포함되어 있어 완전한 정확성에는 다소 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 유용한 정보를 제공합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현이 다소 주관적일 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.631615399181376</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 방사선학과에 지원하려면, 정시 등급 4.4 정도로는 경쟁률이 높은 모집단위에서 충원 합격하기 어려울 것으로 예상됩니다.
+방사선학과는 일반적으로 고득점자를 선호하는 경향이 있으므로, 현재의 성적만으로는 충분한 점수가 아닐 가능성이 큽니다. 하지만 정확한 확률을 알기 위해서는 해당 학과의 최종 입학성적 분석을 참고해야 합니다.
+추가적으로 고려할 사항:
+1. **경쟁률**: 방사선학과의 경쟁률이 높다면, 충원 합격하기 어려울 수 있습니다.
+2. **전형별 지원**: 다른 전형(예: 실기/실적, 학생부교과 등)을 통해 지원해 보는 것도 방법입니다.
+3. **추천서 및 자기소개서**: 이 부분이 중요할 수 있으므로, 잘 준비해보세요.
+더 자세한 정보를 얻으시려면 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참고하여 더 많은 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 제공하지 않으며, 경쟁률에 대한 정보는 출처 텍스트와 일치하지 않습니다. 또한, 모집 인원과 지원 인원에 대한 정보는 출처에 명시되어 있지 않으므로 사실과 다를 수 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 출처 텍스트의 정보와 일치하지 않으며, 경쟁률에 대한 언급이 있지만 이는 출처에서 제공된 데이터와 관련이 없습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하지만, 출처 텍스트의 주요 내용인 정시 등급과 합격 가능성에 대한 정보와는 관련성이 떨어집니다. 경쟁률에 대한 정보는 있지만, 출처의 핵심 주제를 충분히 다루지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족하여 일관된 주제를 유지하지 못하고 있습니다. 경쟁률과 충원 가능성에 대한 언급이 있지만, 출처의 주제와 연결되지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 출처 텍스트의 사실과 일치하지 않는 정보가 포함되어 있으며, 특히 경쟁률과 모집 인원에 대한 정보는 출처에서 제공되지 않은 내용입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 낮은 점수를 받았습니다. 전반적으로 출처 텍스트와의 연관성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하지만, 출처 텍스트의 맥락과는 다소 동떨어져 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 내용은 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.6000850827579003</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>2.66이라는 경쟁률을 방사선학과에서 보자면, 이는 전체 지원자의 수에 비해 모집 인원이 상대적으로 적기 때문에 높은 경쟁률을 나타냅니다. 방사선학과의 경우, 2024학년도 모집인원이 5명이고, 지원 인원이 36명으로, 이는 7.20이라는 높은 경쟁률을 의미합니다.
+현재 제공된 데이터에서 방사선학과의 평균 표준 변환 점수 합은 338.76점이며, 표준 편차는 5.40입니다. 이는 지원자의 성적 분포가 비교적 좁게 분포되어 있다는 것을 의미합니다.
+2.66이라는 경쟁률을 고려할 때, 평균 점수보다 약간 낮은 점수를 가진 학생들도 충원에 포함될 수 있습니다. 그러나 이는 단순히 평균 점수만으로 판단하기에는 부족합니다.
+따라서 2.66이라는 경쟁률을 가지고 방사선학과에 지원하는 것은 상대적으로 높은 위험성을 가집니다. 하지만, 표준 변환 점수 합의 분포가 좁기 때문에, 평균점수보다 약간 낮더라도 충원에 포함될 가능성이 있습니다.
+더 자세한 정보를 얻으시려면, 해당 대학의 입학처 웹사이트(https://ipsi. deu. ac. kr/main. do)를 참조하시거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경찰행정학과의 평균 영어 등급과 관련된 정보를 제공하지만, 원본 텍스트에서 언급된 평균 수능 4개 영역 등급(4.12)과는 다소 다른 맥락에서 접근하고 있습니다. 또한, 영어 등급에 대한 언급이 있지만, 원본 텍스트에서는 영어 등급에 대한 정보가 포함되어 있지 않습니다. 따라서 일부 사실이 정확하지 않거나 원본과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 영어 등급에 대한 언급이 추가되어 있어 일관성이 떨어집니다. 원본 텍스트는 전반적인 성적에 대한 긍정적인 전망을 제시하고 있지만, 생성된 응답은 특정 과목에 대한 세부 정보를 강조하고 있습니다. 이로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 영어 등급에 대한 세부 정보가 추가되어 있어 다소 벗어난 측면이 있습니다. 그러나 전반적으로 지원 가능성에 대한 논의는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 주요 사실과 일치하지 않는 부분이 있습니다. 특히, 영어 등급에 대한 정보는 원본 텍스트에서 제공되지 않았습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본의 의도와 다소 다를 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장은 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.5387032165657288</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66의 영어 등급은 경찰행정학과의 평균 영어 등급(3.98)에 비해 약간 낮습니다. 하지만, 농어촌학생전형에서는 동점자 처리 기준이 있습니다. 동점자 처리 기준 중에서 '영어교과 전 과목 등급 평균 상위자'가 적용될 수 있으므로, 다른 영역의 성적들이 우수하다면 합격 가능성은 높습니다.
+특히, 국어(303.44), 수학(281.29), 사회(4.65) 등급이 평균 이상이라면, 동점자 처리 기준을 충족할 가능성이 있습니다. 따라서, 지원 결과를 확신하기 위해서는 정확한 동점자 처리 기준과 지원자의 전체 성적을 고려해야 합니다.
+만약 자세한 정보가 필요하다면, 동의대학교 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하거나 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번의 순위와 동점자 처리 기준에 대한 정보를 제공하지만, 원문에서 언급된 특정 학과에 대한 합격 가능성에 대한 정보는 누락되어 있습니다. 따라서 일부 사실이 정확하지 않거나 불완전합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하지만, 원문에서 제시된 특정 학과 목록과 관련된 내용이 포함되어 있지 않아 일관성이 떨어집니다. 예비 25번의 의미에 대한 설명은 있지만, 원문과의 연결이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 25번에 대한 정보를 제공하며, 합격 가능성에 대한 질문에 어느 정도 관련이 있습니다. 그러나 원문에서 제시된 특정 학과 목록과의 연결이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 예비 25번의 의미와 합격 가능성에 대한 설명이 일관되게 이어집니다. 그러나 원문과의 연결이 부족하여 완전한 일관성을 갖추지 못했습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번에 대한 정보를 제공하지만, 원문에서 제시된 특정 학과에 대한 합격 가능성에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원문과의 연결이 부족하고 일부 정보가 누락되어 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 예비 25번에 대한 의미를 잘 전달하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원문과의 연결이 부족하여 완전한 의미 전달이 이루어지지 않았습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 다만, 일부 문장이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.4941069349785887</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 순위에서 동점자 처리 기준을 보면, 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수)영역의 합계점수가 높은 순으로 선발합니다. 따라서 예비 25번이 나왔다는 것은 해당 학생이 다른 예비 24번보다 이 기준에서 더 높은 점수를 받았다는 것을 의미합니다.
+하지만, 붙을 확률에 대한 판단은 정확한 수능 성적과 동점자 처리 기준을 고려해야 합니다. 예비 순위가 나왔다고 해서 바로 붙는 것은 아니며, 최종 합격선이 결정될 때까지 기다려야 합니다.
+현재 정보로만 보면, 예비 25번이라는 것은 좋은 성적을 받았다는 것을 의미하지만, 확실한 붙을 확률은 아직 정해지지 않았습니다. 따라서 최종 합격선이 발표되는 시점에 주의를 기울여야 합니다.
+더 자세한 정보나 지원 전략에 대해 궁금하시다면, 대학 입시 관련 웹사이트나 총장실에서 제공하는 자료를 참고하거나, 대학 입학처와 연락을 취해보는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 동의대학교 법경찰행정학부에 대한 정보를 제공하고 있지만, 해당 학부는 존재하지 않으며, 경찰행정학과에 대한 정보와 혼동되고 있습니다. 또한, 평균 성적에 대한 구체적인 수치가 제공되지 않아 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 법경찰행정학부에 대한 정보를 제공하고 있지만, 이는 원본 텍스트와 모순됩니다. 원본 텍스트는 법경찰행정학부가 존재하지 않음을 명확히 하고 있습니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 동의대학교에 대한 정보를 제공하고 있으나, 법경찰행정학부에 대한 잘못된 정보로 인해 원본 텍스트의 핵심 주제와는 다소 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 여러 점을 나열하고 있으나, 전체적으로 일관된 주제를 유지하지 못하고 있습니다. 법경찰행정학부에 대한 잘못된 정보로 인해 논리적 흐름이 약해졌습니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 법경찰행정학부에 대한 잘못된 정보를 포함하고 있으며, 원본 텍스트의 사실과 일치하지 않습니다. 평균 성적에 대한 정보도 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 원본 텍스트와의 관계가 약해 다차원적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 잘못된 정보를 제공하고 있습니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.7318731330935342</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 지원하려면 다음과 같은 점수를 참고하시면 좋을 것 같습니다.
+1. **평균 성적**: 동의대학교는 일반적으로 국어, 수학, 영어 등급이 높은 학생들을 선호합니다. 평균적으로 90점 이상의 국어, 수학, 영어 등급을 받으면 안정권에 들어갈 수 있습니다.
+2. **특성화고 교육과정 또는 직업교육훈련 과정 이수**: 지원 자격 중 특성화고 교육과정 또는 1년 이상의 직업교육훈련과정을 이수한 경우만 해당되므로, 이 부분도 확인하시기 바랍니다.
+3. **전형별 모집인원**: 법경찰행정학부는 다군 전형으로 모집되며, 정원 내 모집인원이 40명입니다. 따라서 경쟁률은 높을 수 있으니, 평균 성적이 90점 이상이라면 안정권에 들어갈 가능성이 있습니다.
+4. **나군 지원 자격**: 나군에서는 경기 실적 우수자, 농어촌 학생 등 다양한 지원자를 모집하므로, 이 부분도 고려하시기 바랍니다.
+5. **최종 선발 가능인원**: 최대선발 가능인원이 6명 이내로 제한되어 있으니, 경쟁률은 매우 높을 수 있습니다.
+따라서 평균 성적이 90점 이상이라면 안정권에 들어갈 수 있으며, 85점 이상이라면 문 닫고 들어갈 가능성이 있습니다. 하지만 이는 예측이며, 실제 선발 결과는 여러 요인에 따라 변동될 수 있으므로, 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 확인하시는 것이 좋습니다.
+더 궁금하신 점이 있다면 https://ipsi. deu. ac. kr/main. do 를 참조하시거나, 동의대학교 입학처에 문의해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 아동학과에 대한 정보를 제공하지만, 수능 4개 영역의 평균 점수와 표준 편차에 대한 정보는 원본 텍스트에 포함되어 있지 않습니다. 또한, "수능 최저 기준 없음"이라는 정보는 원본 텍스트에서 확인할 수 없는 내용입니다. 따라서 일부 사실이 정확하지 않거나 원본과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 아동학과의 모집 전형에 대한 추가 정보를 제공하면서 원본 텍스트와의 일관성이 떨어지는 부분이 있습니다. 특히, 수능 최저 기준이 없다는 점은 원본 텍스트에서 언급되지 않았습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 아동학과에 대한 지원과 관련된 정보를 제공하고 있으며, 질문의 맥락에 잘 맞춰져 있습니다. 그러나 원본 텍스트의 특정 세부사항을 완전히 반영하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트와의 불일치로 인해 정확성 점수가 낮아졌습니다. 특히, 수능 4개 영역의 평균 점수와 표준 편차에 대한 정보는 원본에 없으므로 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있습니다. 그러나 사실성과 일관성에서의 문제로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 일부 추가 정보가 원본과 일치하지 않아 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.6391743909330027</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 모집 정보를 확인해보겠습니다.
+보육가정상담학과는 아동학과로 분리되었습니다. 따라서, 아동학과에 대한 지원을 고려해야 합니다.
+아동학과의 경우, 정시모집군은 다군 수능(일반학생전형)으로 모집됩니다. 이 전형에서는 학생부 교과와 출결, 서류, 면접, 실기, 수능 등이 반영되지 않습니다. 즉, 수능 최저 기준 없음이며, 수능 점수가 주요 평가 요소입니다.
+2024학년도 동의대학교 아동학과의 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 373.50이고, 표준 편차는 56.83입니다.
+주어진 정시 산출 등급이 5.33이라면, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균치를 상회합니다. 따라서, 주어진 정보만으로는 합격 가능성이 높다고 판단할 수 있습니다.
+하지만, 최종 합격 여부는 여러 요소에 따라 결정되므로, 정확한 결과는 동의대학교 입학처에서 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있으며, 충원 합격자 발표 일정과 예비 번호에 따른 합격 가능성에 대한 정보를 정확하게 전달하고 있습니다. 그러나 "합격 가능성은 아직 높지 않을 것으로 판단됩니다"라는 부분은 원본 텍스트에서 명시적으로 언급되지 않았으므로 약간의 주관적 해석이 포함되어 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 다만, "합격 가능성은 아직 높지 않을 것으로 판단됩니다"라는 주장은 원본 텍스트의 내용과는 약간의 차이가 있어 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 질문자의 상황에 대한 적절한 조언을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문단이 자연스럽게 연결되어 있습니다. 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, "합격 가능성은 아직 높지 않을 것으로 판단됩니다"라는 주관적인 해석이 포함되어 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행하고 있지만, 일부 주관적인 해석이 포함되어 있어 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 주관적인 해석이 포함되어 있어 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 질문자가 필요한 정보를 잘 전달하고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.6849827459678415</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담학과 충원 합격 3차에서 예비 12번을 받았다면, 합격 가능성은 아직 높지 않을 것으로 판단됩니다. 그러나 최종 합격 여부는 합격자 발표일에 확인해야 합니다.
+현재까지의 정보로는 다음과 같은 점들을 고려해볼 수 있습니다:
+1. **합격자 발표 일정**: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지 합격자 발표가 있을 예정입니다.
+2. **합격 기준**: 충원 합격 3차에서는 예비 12번을 받았으므로, 이전 차례에서의 성적과 서류 평가 결과를 고려해 합격 여부가 결정될 것입니다.
+3. **동점자 처리기준**: 동점자 처리 기준은 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수)영역의 합계점수 상위자로, 이전 차례에서의 성적과 서류 평가 결과를 고려해 결정됩니다.
+따라서, 최종 합격 여부는 2024년 2월 15일부터 발표되는 합격자 명단을 확인해야 합니다. 만약 아직 합격자가 발표되지 않았다면, 기다리면서 준비하는 것이 좋습니다. 추가로 서류와 면접에서의 성적을 최대한 높이는 것이 중요합니다.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 대한 지원 가능성에 대해 언급하고 있지만, 경쟁률과 평균 점수에 대한 정보는 원본 텍스트에 명시된 내용과 일치하지 않습니다. 특히, 평균 점수가 300점대에서 400점대라는 정보는 사실과 다릅니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 경쟁률과 평균 점수에 대한 정보가 상충하여 일관성이 떨어집니다. 유아교육학과의 평균 점수는 4.18로 명시되어 있으나, 생성된 응답에서는 다른 수치를 제시하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 지원 가능성에 대한 질문에 적절하게 답변하고 있으며, 관련된 추가 정보를 제공하고 있습니다. 그러나 일부 정보는 원본 텍스트와 일치하지 않아 완전한 관련성을 보이지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 일부 정보가 원본 텍스트와 일치하지 않아 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 대한 지원 가능성에 대한 정보를 제공하지만, 경쟁률과 평균 점수에 대한 정보가 부정확하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 복잡한 문장 구조가 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.6996770446959106</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 점수로는 유아교육학과에 지원하는 것이 쉽지 않을 것으로 보입니다. 유아교육학과의 경쟁률은 일반적으로 높으며, 평균적인 수능 점수가 300점대에서 400점대를 넘어서는 경우가 많습니다.
+특히, 2024년도 모집에 대한 데이터를 보면 유아교육학과의 지원 인원이 13명이고, 경쟁률은 3.25로 높습니다. 이 점수로 지원하면 충분한 경쟁력을 갖추지 못할 가능성이 큽니다.
+그러나 수능 점수가 정확히 4.75인지 확인하고, 다른 평가 요소를 고려해 보는 것이 좋습니다. 예를 들어:
+1. **학생부 성적**: 학생부 교과성적이 높다면 이점을 활용할 수 있습니다.
+2. **면접 성적**: 면접에서 좋은 점수를 받을 경우 이점도 반영될 수 있습니다.
+3. **특기사항 및 활동**: 다양한 활동이나 특기를 통해 전공 적합성을 보여줄 수 있습니다.
+따라서, 정확한 지원 가능 여부는 학생부 성적, 면접 성적 등 다른 평가 요소를 고려하여 결정해야 합니다. 자세한 정보는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 왜곡하고 있으며, 제공된 데이터와 관련된 정확한 정보를 반영하지 않고 있습니다. 예를 들어, 평균 환산등급과 표준 편차에 대한 정보는 원본 텍스트에 명시된 내용과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 4.16의 정시 등급이 합격 가능성이 높다고 명시하고 있지만, 생성된 응답은 이를 부정하는 내용으로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 관련된 정보를 제공하고 있으나, 주제와 관련된 핵심 포인트를 충분히 다루지 않고 있습니다. 원본 텍스트의 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트의 주제와 관련하여 명확한 연결이 부족합니다. 정보가 분산되어 있어 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있으며, 특히 평균 환산등급과 관련된 수치가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 일부 일치하지만, 전체적인 맥락에서 벗어난 부분이 있어 의미적으로 완벽하게 적절하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 복잡한 문장으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.6146348256968611</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터만으로는 확실한 답변을 드리기 어렵습니다. 동의대학교의 보육가정상담학과 일반학생전형에 대한 정보를 확인해보겠습니다.
+1. **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**:
+   - 평균: 307.86
+   - 표준 편차: 10.40
+2. **영어 등급**:
+   - 평균: 3.25
+   - 표준 편차: 0.82
+3. **수능 4개 영역 등급**:
+   - 평균: 4.18
+   - 표준 편차: 0.29
+4. **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**:
+   - 평균: 434.44
+   - 표준 편차: 9.00
+이 정보를 바탕으로, 동의대학교 보육가정상담학과 일반학생전형에 대한 경쟁률과 합격 기준을 판단해보겠습니다.
+- **평균 환산등급**: 434.44
+- **표준 편차**: 9.00
+제가 제공한 정보를 바탕으로, 평균 환산등급이 434.44이고 표준 편차가 9.00인 경우, 동의대학교 보육가정상담학과 일반학생전형에 합격하기 위해서는 대략적으로 425-445 사이의 점수를 받아야 합니다.
+제가 제공한 환산등급 4.16은 평균보다 약간 낮습니다. 그러나 표준 편차를 고려하면, 이 정도 차이는 크게 문제가 되지 않을 수 있습니다. 하지만 확실한 합격을 보장하기 위해서는 더 높은 점수를 받아야 합니다.
+따라서 추합까지 생각한다면, 4.16 환산등급으로는 약간의 위험성이 있을 수 있습니다. 더욱 안전하게 합격을 보장받기 위해서는 조금 더 높은 등급을 목표로 해보시는 것이 좋겠습니다.
+만약 추가 정보가 필요하시거나, 다른 전형에 대한 문의가 있으시다면, "https://ipsi. deu. ac. kr/main. do"를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 무시하고, 관련 정보가 없다고 언급하며 웹사이트를 방문하라는 안내를 하고 있습니다. 이는 원본 텍스트의 핵심 사실과 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 정시 지원이 불가능하다는 내용을 부정하는 정보가 포함되어 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 관련 웹사이트를 안내하고 있지만, 질문에 대한 직접적인 답변을 제공하지 않기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답의 내용이 원본 텍스트와 일관되지 않기 때문에 논리적인 흐름이 약간 부족합니다. 정보가 분산되어 있어 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 소프트웨어융합학과의 정시 지원 불가능성을 잘못 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 품질 차원에서 응답이 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 비교적 이해하기 쉬우나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.5292172016958104</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 "소프트웨어융합학과"에 대한 특정 정보가 없습니다. 이와 관련하여 자세한 내용을 확인하려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do) 웹사이트를 방문해 주시기 바랍니다. 해당 사이트에서 정시 모집에 대한 최신 정보와 학과별 평균 등급 등을 확인하실 수 있습니다.
+일반적으로 정시 모집에서는 학교별로 특정 학과에 지원할 수 있는 기준이 다릅니다. 따라서 "소프트웨어융합학과"에 지원하려면 해당 학과의 정시 모집 기준을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 서류 평가와 면접 평가의 비율을 60%와 40%로 언급하고 있으나, 원문에서는 이러한 비율에 대한 언급이 없습니다. 따라서 일부 정보는 추가되었지만, 원문에 명시된 사실과는 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 서류 평가와 면접 고사에 대한 내용을 포함하고 있지만, 비율에 대한 정보가 추가되어 있어 일관성이 떨어집니다. 원문과의 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 질문한 내용과 관련된 정보를 잘 다루고 있으며, 서류 평가와 면접 평가에 대한 구체적인 설명을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 비율에 대한 언급이 원문에 없기 때문에 약간의 일관성 문제가 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일부 일치하지만, 비율과 같은 추가 정보가 포함되어 있어 정확성에 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이며, 관련성과 유창성에서 좋은 점수를 받았습니다. 그러나 사실성과 일관성에서 약간의 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 다만, 일부 문장이 길어질 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.7417555143804445</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 소프트웨어융합학과의 경우, 서류평가와 면접평가가 각각 60%와 40%의 비율로 반영되며, 특히 서류평가에서의 공동체역량과 전공적합성 영역이 중요합니다. 이 두 영역은 학교생활기록부를 통해 평가되므로 세특 내용을 많이 보시는 편입니다.
+따라서, 면접 점수보다는 서류평가에서의 성적이 더 중요하게 작용할 것입니다. 특히 공동체역량과 전공적합성 영역에 대한 준비가 필요합니다. 
+면접에서는 지원동기와 학업계획, 학업역량 및 전공적합성 관련 공통문항을 발표하고 질의응답하는 과정이 포함되므로, 이 부분도 충분히 준비해두시는 것이 좋습니다.
+추가적으로 제출해야 할 서류로는 지원동기와 학업계획에 대한 답변, 고교 생활 중 학업에 대한 어려움과 해결하기 위한 노력에 대해 이야기하는 내용이 포함될 것입니다. 또한, 본인이 의미를 두고 노력했던 소프트웨어 관련 교내 활동을 설명하는 것이 필요합니다.
+자세한 사항은 https://ipsi. deu. ac. kr/main. do 를 참조하시거나 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부에 대한 정보가 아닌 인문사회과학대학 중소학과에 대한 정보를 제공하고 있습니다. 이는 원본 텍스트의 주제와 관련이 없으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 소프트웨어공학부에 대한 정보를 제공하는 반면, 생성된 응답은 중소학과에 대한 정보를 다루고 있어 서로 상충하는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 적습니다. 소프트웨어공학부에 대한 질문에 대해 중소학과의 성적 기준을 언급하고 있어 주제에서 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 주제와 관련이 없기 때문에 내용의 흐름이 자연스럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 특히, 중소학과의 평균 성적에 대한 정보는 소프트웨어공학부와 관련이 없습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 관련성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 주제와 관련이 없는 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 주제와 관련이 없기 때문에 독자가 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.6433941163922815</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 인문사회과학대학 중소학과(예를 들어, 중어중국학과)에 대한 정시 성적 기준을 확인할 수 있습니다. 중어중국학과의 경우 평균 수능 4개 영역 등급이 5.21이고 표준 편차가 0.33입니다.
+현재 제시된 성적이 4.08이라면, 이는 평균보다 약간 낮은 점수입니다. 그러나 표준 편차를 고려하면, 이 성적도 어느 정도 경쟁력을 갖추고 있을 수 있습니다. 하지만 동의대학교 소프트웨어공학부에 대한 정시 성적 기준이 제공되지 않았기 때문에, 정확한 판단을 내리기는 어렵습니다.
+동의대학교 인문사회과학대학 중소학과의 경우, 정시 성적이 4.08이라면 충분히 지원 가능할 수 있습니다. 그러나 소프트웨어공학부에 대한 정시 성적 기준이 필요합니다. 만약 해당 정보가 제공되지 않았다면, 동의대학교 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하거나 학교 관계자에게 문의하여 최신 정보를 얻는 것이 좋습니다.
+추가적으로, 지원 시 경쟁률과 모집 인원 등을 고려하여 결정을 내리는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 소프트웨어융합학과에 대한 구체적인 합격 등급 정보를 제공하지 않으며, 잘못된 정보(예: 평균 5등급이 충분하다는 주장)를 포함하고 있습니다. 원본 텍스트는 합격 가능성을 확인하기 위해 최근 합격자 평균 등급이나 입시 결과를 참고해야 한다고 명시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 합격 등급에 대한 구체적인 정보를 제공하지 않으며, 생성된 응답은 5등급이 충분하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과에 대한 질문과 관련이 있지만, 잘못된 정보와 추측을 포함하고 있어 관련성이 낮습니다. 원본 텍스트의 핵심 내용과는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 일관성이 부족하여 전체적으로 일관된 메시지를 전달하지 못합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 특히, 5등급이 충분하다는 주장은 사실이 아닙니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성 모두에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많아 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 전반적으로 이해할 수 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.603206677951091</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학과를 지원하려면, 평균 5등급은 충분한 점수일 것입니다. 해당 과정의 수능 4개 영역 등급의 평균이 4.12로, 표준 편차가 0.32라는 것을 확인할 수 있습니다.
+평균 5등급으로 지원하면, 표준화된 점수가 약 420점 정도를 받을 것으로 예상됩니다. 이는 평균보다 약간 높은 점수입니다. 그러나 경쟁률이 매우 높기 때문에, 단순히 등급만으로는 충분한 보장은 되지 않을 수 있습니다.
+따라서, 지원을 결정하기 전에 다음과 같은 요소들을 고려해보시는 것이 좋습니다:
+1. 다른 학생들의 평균 점수와 경쟁률
+2. 자신의 강점과 약점을 분석하여 지원 가능한 다른 과정도 함께 검토
+3. 대학의 입학사정관이 평가하는 요소들 (예: 진로계획, 활동 등)
+더 자세한 정보나 도움이 필요하시다면, 해당 대학의 입학처 웹사이트를 방문하거나 전화로 문의하시는 것이 좋습니다. "https://ipsi.deu.ac.kr/main.do" 링크를 통해 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 신소재공학과의 합격 가능성에 대한 여러 요소를 언급하고 있지만, 원본 텍스트에서 제공된 평균 등급 정보와 비교했을 때, 4.28이라는 점수가 평균보다 높다고 판단한 원본의 결론과 상반된 주장을 하고 있습니다. 이는 사실과 일치하지 않으므로 낮은 점수를 부여합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 결론과 상반된 내용을 포함하고 있습니다. 원본에서는 4.28이 평균보다 높다고 판단했으나, 생성된 응답에서는 이 점수로는 합격 확률이 낮다고 주장하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 다루고 있으며, 합격 가능성에 대한 추가적인 정보를 제공합니다. 그러나 원본의 결론과는 다르기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있지만, 전체적으로 논리적인 흐름이 다소 부족합니다. 원본의 결론과 상반된 주장을 하면서 일관된 주제를 유지하기 어려운 점이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상반된 주장을 하고 있으며, 4.28이라는 점수가 평균보다 높다는 원본의 사실을 무시하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 의미적으로 원본의 결론과 상반된 주장을 하고 있어 적절성에서 다소 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 설명을 제공합니다. 그러나 일부 내용이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.5364668701057973</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수만으로는 동의대학교 신소재공학과에 합격할 확률을 정확히 예측하기 어렵습니다. 이유는 다음과 같습니다:
+1. **모집 인원과 지원 인원**: 신소재공학과의 모집 인원은 4명 이내이며, 지원 인원이 29명으로 매우 높은 경쟁률을 보입니다.
+2. **평균 점수와 표준 편차**: 해당 과정의 평균 점수가 308.58이고 표준 편차가 10.96이라는 점을 고려하면, 4.28은 상당히 낮은 점수입니다.
+3. **경쟁률**: 지원 인원이 많고 모집 인원이 적기 때문에 경쟁률이 매우 높습니다 (지원 인원 : 모집 인원 = 29:4).
+4. **동점자 처리 기준**: 동점자 처리 기준은 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급 평균 상위자 순으로 처리되므로, 4.28의 점수로는 상위권에 진입하기 어려울 것으로 보입니다.
+따라서, 4.28이라는 점수로는 합격 확률이 매우 낮다고 판단할 수 있습니다. 더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 좋습니다. 또한, 다른 대학이나 과정을 고려해보는 것도 좋은 방법일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 자기소개서가 필요 없다는 사실을 명확히 전달하고 있습니다. 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 자기소개서가 필요 없다는 점을 반복적으로 강조하고 있습니다. 모든 정보가 서로 충돌하지 않고 일관성을 유지합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 자기소개서 필요성에 대한 질문에 대한 명확한 답변을 제공합니다. 추가적인 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다. 전반적으로 매우 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 항목이 잘 연결되어 있습니다. 전체적으로 일관된 메시지를 전달합니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다. 모든 정보가 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.6324795017040173</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>2024년 수능 일반학생전형에서는 자기소개서 작성은 필요하지 않습니다. 다군 수능(일반학생전형)의 경우, 서류 심사에만 초점을 맞추면 됩니다. 자세한 내용은 다음과 같습니다:
+1. **제출서류**: 학생부 온라인 제공 동의자에 한해 학생부를 온라인으로 제공 받을 수 있습니다. 고교 졸업(예정)자와 검정고시 출신자, 외국고교 졸업(예정)자는 각각 해당하는 서류만 제출하면 됩니다.
+2. **면접**: 다군 수능(일반학생전형)에서는 면접이 포함되어 있지 않습니다. 따라서 자기소개서 작성은 필요하지 않습니다.
+3. **동점자 처리기준**: 동점자 처리를 위한 기준이 있지만, 이는 서류 심사 결과에 따라 결정되며, 자기소개서와 직접 관련이 없습니다.
+따라서 수능 일반학생전형으로 지원하려면, 주어진 제출서류만 준비하면 됩니다. 자세한 내용은 https://ipsi. deu. ac. kr/main. do를 참조하시거나 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 4.5 점수에 대한 합격 가능성을 여러 요소에 따라 설명하고 있으며, 원본 텍스트의 정보와 잘 일치합니다. 그러나 특정 학과의 경쟁률에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로 약간의 차이가 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 일관되며, 추가 모집에 대한 설명도 포함되어 있습니다. 다만, 특정 학과의 경쟁률에 대한 정보는 원본 텍스트에 없으므로 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 점수와 추가 모집에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 자연스럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 수능 점수와 관련된 정보에 대해 정확하게 설명하고 있지만, 특정 학과의 경쟁률에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일부 정보의 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.6858769894650227</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>4.5라는 표준점수가 주어졌을 때, 추가 모집에 합격할 확률은 모집인원과 지원 인원, 경쟁률 등 여러 요소에 따라 달라질 수 있습니다. 현재 제공된 정보만으로는 정확한 예측이 어렵습니다.
+특히 다음과 같은 요소들이 중요합니다:
+1. **모집단위**: 어떤 학과를 지원하는지에 따라 경쟁률이 다릅니다.
+2. **경쟁률**: 각 모집단위의 경쟁률을 확인해야 합니다.
+3. **지원 인원**: 해당 모집단위에서 얼마나 많은 지원자가 있는지를 알아야 합니다.
+예를 들어, 인문사회과학대학의 중어중국학과는 1.63의 경쟁률이 있고, 지원 인원은 39명입니다. 이 경우 4.5라는 점수로는 충분히 합격할 수 있습니다. 반면에 경찰행정학과는 4.14의 경쟁률을 가지고 있지만, 모집인원이 적어 경쟁률이 높을 수 있습니다.
+따라서, 정확한 답변을 위해서는:
+- 지원하는 모집단위와 학과를 확인해야 합니다.
+- 해당 모집단위의 최신 경쟁률과 모집인원을 파악해야 합니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 통해 직접 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 평균 등급과 관련된 정보를 제공하고 있으며, 합격 가능성에 대한 언급도 포함되어 있습니다. 그러나 직접적인 합격 기준 점수에 대한 정보가 없다는 점에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 신소재공학과의 평균 등급과 관련된 내용을 잘 반영하고 있습니다. 다만, 합격 기준에 대한 정보가 부족하다는 점에서 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 신소재공학과의 합격 기준과 관련된 정보를 잘 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 문장 간의 연결이 더 매끄럽게 이루어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 제공된 데이터에 기반하여 정확한 정보를 제공하고 있으나, 합격 기준 점수에 대한 직접적인 언급이 부족하여 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 사실성에서 높은 점수를 받습니다. 그러나 약간의 일관성과 정확성 부족이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 부분에서 더 명확한 표현이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.7053412071016335</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 신소재공학과의 정시 합격 기준 점수에 대한 직접적인 정보가 없습니다. 신소재공학과의 경우, 일반적으로 수능 성적과 등급이 합격 기준 중 하나입니다.
+수능 성적과 등급은 지원자의 경쟁률과 모집인원을 고려하여 결정되며, 이는 제공된 데이터에서 확인할 수 있습니다. 신소재공학과의 경우, 지원 인원이 32명이고 모집 인원이 32명이라는 정보가 있습니다.
+따라서, 정확한 합격 기준 점수를 알기 위해서는 동의대학교 입학처 웹사이트나 전형 안내 자료를 확인하거나, 직접 입학처에 문의하는 것이 가장 정확할 것입니다. 
+추가적으로, 수능 등급과 국어, 수학, 탐구 영역의 표준 변환 점수 합이 합격 기준을 결정하는데 큰 역할을 합니다. 이 정보는 제공된 데이터에서 확인할 수 있습니다.
+더 자세한 정보를 원하시면 https://ipsi. deu. ac. kr/main. do 웹사이트를 참조해보시거나, 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수에 대한 정보가 부족하고, 447점이 작년 평균 점수보다 높다는 사실을 명확히 언급하지 않고 있습니다. 또한, 2023년의 평균 점수에 대한 구체적인 수치가 없으므로 사실성 점수가 낮습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 작년의 평균 점수와 관련된 정보가 부족하여 일관성이 떨어집니다. 작년의 평균 점수와 비교하여 447점이 높다는 점은 언급되지만, 그에 대한 확신이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 주제와 관련된 정보를 제공하고 있지만, 작년의 평균 점수에 대한 구체적인 언급이 부족하여 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 평균 점수에 대한 명확한 정보가 부족하여 완전한 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 작년의 평균 점수에 대한 구체적인 수치가 없고, 447점이 높다는 점을 명확히 하지 않기 때문에 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 정확성에서 부족함이 있어 전반적인 품질 점수가 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문의 맥락에 맞는 정보를 제공합니다. 그러나 평균 점수에 대한 구체적인 언급이 부족하여 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 그러나 일부 문장이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.7643101493398075</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>2023년 동의대학교 신소재공학과의 최종 평균 점수가 작년에 환산된 표준점수 447점보다 약간 높았던 것으로 보이네요. 하지만 표준점수는 연도별로 변동이 있을 수 있으며, 각 모집단위의 경쟁률과 지원 인원 등 다양한 요인들이 평균 점수에 영향을 미칩니다.
+현재 제공된 정보만으로는 작년의 상황이 완전히 반복될 것이라는 확신은 어렵습니다. 하지만 표준점수가 비슷한 수준이라면, 작년보다 약간 높은 평균 점수를 기대할 수 있습니다.
+만약 작년에 비해 경쟁률이 낮아진다면, 작년과 유사한 최종 평균 점수를 얻을 가능성도 있습니다. 반대로 경쟁률이 높아지면, 평균 점수가 작년보다 낮아질 수 있습니다.
+따라서, 작년의 상황을 고려하되, 현재 제공된 정보와 모집단위의 특성 등을 종합적으로 분석하여 최종 평균 점수를 예측하는 것이 좋겠습니다. 필요하다면, 동의대학교 입학처에 직접 문의하거나, 올해의 경쟁률과 지원 인원 등의 정보를 확인하시기 바랍니다.
+더 궁금하신 사항이 있으시다면, "https://ipsi.deu.ac.kr/main.do" 링크를 통해 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 평균 성적에 대한 정보와 합격 가능성에 대한 언급이 있지만, "4.3 등급의 수능 영어 성적이 4.1~4.2 정도로 변환된다"는 부분은 원문에서 언급된 성적 범위와 일치하지 않으며, 모집인원이 4명 이내라는 정보는 원문에 포함되어 있지 않습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부 일치하지만, 모집인원에 대한 정보와 같은 세부 사항에서 일관성이 부족합니다. 원문에서는 평균 성적에 대한 정보가 주어졌으나, 생성된 응답에서는 모집인원에 대한 언급이 추가되어 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원문에서 다룬 주제와 관련이 있지만, 일부 추가적인 정보가 포함되어 있어 주제에서 약간 벗어날 수 있습니다. 그러나 전반적으로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 일부 정보가 추가되어 흐름이 약간 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원문에서 제공된 정보와 일부 일치하지만, 모집인원에 대한 정보와 성적 변환에 대한 언급이 정확하지 않아 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 종합적인 품질 점수가 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 주제에 적합한 내용을 담고 있습니다. 그러나 일부 추가 정보가 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달되고 있습니다. 다만, 일부 문장이 복잡할 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.5752356246547342</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.3 등급의 수능 영어 성적이 4.1~4.2 정도로 변환되면, 신소재공학과의 일반 학생 전형에 붙는 것은 가능성이 있습니다만, 확실한 것은 아닙니다. 신소재공학과의 경우 모집인원이 4명 이내이며, 수능 성적 외에도 다른 요소들이 고려될 수 있기 때문입니다.
+현재로서는 다음과 같은 절차를 따르시는 것이 좋습니다:
+1. **수능 성적 확인**: 정확한 수능 영어 등급을 확인합니다.
+2. **모집요강 확인**: 신소재공학과의 모집요강을 다시 한 번 확인하여, 전형 요소와 가산점 등을 파악합니다.
+3. **동점자 처리 기준 이해**: 동점자 처리 기준을 잘 이해하고, 자신의 성적 위치를 판단합니다.
+만약에 정확한 수능 영어 등급이 4.1~4.2로 변환된다면, 이는 상당히 좋은 성적입니다. 그러나 신소재공학과의 경우 모집인원이 제한적이므로, 다른 지원자들과의 경쟁이 치열할 수 있습니다.
+추가적으로, 학교 입학관리팀에 문의하시거나, 해당 대학의 입학처 웹사이트를 확인하여 더 자세한 정보를 얻으시는 것이 좋습니다. 필요하다면, 전문적인 상담을 받으시는 것도 좋은 방법입니다.
+더 궁금하신 점이 있으시다면, "https://ipsi.deu.ac.kr/main.do" 링크를 통해 대학 입학처에 문의하시거나, 해당 웹사이트에서 자세한 정보를 얻어보세요.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 성적 기준을 잘못 제시하고 있습니다. 원본 텍스트에서 제공된 구체적인 성적 데이터와 모집 인원, 경쟁률 등의 정보가 누락되어 있으며, "순위: 2위"라는 정보는 원본에 명시되어 있지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 예를 들어, "순위: 2위"라는 내용은 원본에 없으며, 동점자 처리 기준에 대한 설명도 원본의 내용과 일치하지 않습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 정보를 제공하고 있지만, 원본 텍스트의 주요 내용인 성적 데이터와 모집 인원 등의 정보가 포함되어 있지 않아 다소 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 원본의 정보와 관련된 내용이 부족하여 흐름이 매끄럽지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있어 정확성이 낮습니다. 특히, 성적 기준에 대한 잘못된 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본의 맥락과는 다소 어긋나는 부분이 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본의 정보가 부족하여 전체적인 이해를 돕지 못합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.7648461275825241</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형에 대한 성적 기준은 다음과 같습니다:
+1. **순위**: 2위입니다.
+2. **동점자 처리기준**: 
+   - 수능 국어, 영어, 수학-I, 수학-II 중에서 가장 높은 과목 4개의 등급 평균이 상위자로 선정됩니다.
+따라서 동의대학교 인공지능학과 수능 일반학생전형에 지원하려면, **수능 국어, 영어, 수학-I, 수학-II 중에서 가장 높은 과목 4개의 등급 평균이 상위자**로 선정될 수 있도록 성적을 유지해야 합니다.
+더 자세한 정보나 추가 질문이 있으시다면 언제든지 물어보세요!</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교의 성적 기준에 대한 정보가 부족하고, 5.27 성적이 충원 합격 가능성에 대한 구체적인 데이터를 제공하지 않음. 그러나 일부 사실은 포함되어 있음.
+2. Consistency Score (1-5): 3
+   - 응답은 동의대학교의 성적 기준에 대한 일반적인 설명을 제공하지만, 원본 텍스트에서 제시된 구체적인 학과와 성적 정보를 반영하지 않음. 따라서 일관성이 떨어짐.
+3. Relevance Score (1-5): 4
+   - 응답은 동의대학교의 성적 기준과 관련된 내용을 다루고 있으나, 원본 텍스트의 구체적인 정보와 비교할 때 다소 부족함.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 이해하기 쉬움. 그러나 약간의 어색함이 있을 수 있음.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 연결되어 있으며, 주제에 대한 일관된 흐름을 유지하고 있음.
+6. Accuracy Score (1-5): 3
+   - 응답은 동의대학교의 성적 기준에 대한 일반적인 설명을 제공하지만, 구체적인 데이터와 비교할 때 정확성이 떨어짐.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 여러 차원에서 중간 정도의 품질을 보이며, 구체적인 정보가 부족하여 전반적인 품질이 떨어짐.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 구체적인 정보가 부족하여 완전한 적합성은 아님.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 명확하고 이해하기 쉬우나, 구체적인 데이터가 부족하여 완전한 이해를 방해할 수 있음.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.633402904364967</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 동의대학교에서 추천받을 수 있는 학과를 찾는 것은 어렵습니다. 동의대학교의 모집단위별로 수능 평균 점수가 높기 때문입니다.
+특히, 동의대학교의 경우 수능 4개 영역 등급의 평균이 상당히 높은 편이며, 표준편차도 작아서 성적 차이가 크게 벌어지지 않습니다. 따라서 5.27이라는 점수로는 경쟁률이 매우 높은 학과들에서 추천받기 어려울 것입니다.
+만약 특정 학과에 관심이 있다면, 해당 학과의 수능 평균 점수와 표준편차를 확인하여 자신의 성적과 비교해보시는 것이 좋습니다. 또한, 동의대학교의 모집단위별 경쟁률을 참고하시어 적합한 학과를 선택하는 것이 중요합니다.
+더 자세한 정보나 도움이 필요하시다면 https://ipsi.deu.ac.kr/main.do 를 방문해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 수능 4개 영역 등급 평균을 4.65로 제시하고 있지만, 원본 텍스트에서는 4.49로 명시되어 있습니다. 또한, 정시 성적이 평균보다 낮다고 언급했으나, 원본 텍스트에서는 4.2가 평균보다 높은 성적이라고 설명하고 있습니다. 이러한 사실의 왜곡으로 인해 점수가 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 4.2가 평균보다 높은 성적이라고 명시하고 있지만, 생성된 응답에서는 4.2가 평균보다 낮다고 언급하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 소프트웨어공학부의 합격 가능성에 대한 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 일부 정보는 원본 텍스트와 직접적으로 관련이 없는 세부사항을 포함하고 있어 점수가 다소 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 완전한 유창성에는 미치지 못합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 특히, 평균 성적에 대한 잘못된 해석이 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 적절성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 정보가 혼란을 줄 수 있어 완전한 이해 가능성에는 미치지 못합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.6044370589349837</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 대한 정보를 바탕으로, 정시 성적이 4.2인 경우의 합격 가능성에 대해 평가해보겠습니다.
+1. **전형 유형**: 수능 위주
+2. **모집 단위**: 전 모집단위 (디자인조형학과, 체육학과 제외)
+3. **전형료(수수료 포함)**: 40,000원
+**성적 평균 및 표준 편차 정보**:
+- 수능 4개 영역 등급 (평균): 4.65
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 (평균): 419.33
+**성적 평균과 비교**:
+- 정시 성적이 4.2인 경우, 이는 평균보다 약간 낮은 수준입니다.
+- 그러나 표준 편차가 0.21로 상대적으로 작기 때문에, 4.2의 성적도 충분히 경쟁력이 있을 수 있습니다.
+**합격 가능성**:
+- 합격 가능성이 있지만, 경쟁률과 지원 인원에 따라 결정될 것입니다.
+- 평균보다 낮은 점수이지만, 표준 편차가 작기 때문에 상대적으로 안정적인 성적입니다.
+따라서 정시 성적이 4.2인 경우에도 동의대학교 소프트웨어공학부에 합격할 수 있는 가능성은 있습니다. 하지만 최종 결정은 경쟁률과 지원 인원, 그리고 해당 전형의 특성 등 여러 요소에 따라 달라질 수 있으므로, 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 관련 자료를 확인하는 것이 좋습니다.
+더 궁금하신 점이 있다면 언제든지 물어보세요.</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 화학환경공학부에 대한 정보를 제공하고 있지만, 질문자는 동의대학교 식품공학과에 대한 정보를 요청했습니다. 따라서, 응답은 주제와 관련이 없고, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 응답은 화학환경공학부의 성적 기준을 언급하고 있지만, 질문자는 식품공학과에 대한 정보를 요청했습니다. 이로 인해 응답은 일관성이 부족합니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 질문의 주제와 관련이 없으며, 동의대학교 식품공학과에 대한 정보가 아닌 화학환경공학부에 대한 정보를 제공합니다. 따라서 매우 낮은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 오류가 없습니다. 그러나 주제와 관련이 없기 때문에 점수를 다소 낮추었습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 논리적으로 연결되어 있지만, 질문의 주제와 관련이 없기 때문에 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 응답은 화학환경공학부에 대한 정보를 제공하지만, 질문자는 식품공학과에 대한 정보를 요청했습니다. 따라서 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 응답은 여러 차원에서 낮은 점수를 받았으며, 주제와 관련이 없고, 일관성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 응답은 질문의 맥락과 의미에 맞지 않으며, 주제와 관련이 없기 때문에 매우 낮은 점수를 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하게 작성되어 있어 이해하기 쉽지만, 주제와 관련이 없기 때문에 점수를 다소 낮추었습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.47971896894675</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 확실한 답변을 드리기 어렵습니다. 동의대학교 식품공학과의 경우, 정시 모집단위에 해당하지 않으므로 일반학생전형에서의 성적 산출방법이 어떻게 적용되는지 명확히 파악해야 합니다.
+식품공학과는 정시 모집단위가 아니므로, 일반학생전형에서는 다른 방법으로 성적이 반영될 수 있습니다. 동의대학교의 '다군 수능(일반학생전형)'에서의 성적 산출방법을 확인해 보세요. 
+'다군 수능(일반학생전형)'의 경우, 인문사회과학대학, 상경대학 모집단위에서는 다음과 같은 방법으로 성적이 산출됩니다:
+- 국어 표준점수 25% + 수학 표준점수 25% + 영어 등급점수 25% + 탐구 표준점수 25%
+공과대학, ICT융합공과대학 모집단위에서는 다음과 같은 방법으로 성적이 산출됩니다:
+- 국어 표준점수 25% + 수학 표준점수 25% + 영어 등급점수 25% + 탐구 표준점수 25% + 수학(미적분 또는 기하) 응시자에 한해 수학 취득 표준점수의 10% 가산점
+따라서, 동의대학교 식품공학과의 경우, 정시 모집단위가 아니므로 '다군 수능(일반학생전형)'에서의 성적 산출방법을 따르게 됩니다. 
+3.92라는 점수를 얻었다면, 해당 점수가 위에 설명된 방법으로 반영될 경우 일반학생전형에서 가능할 것으로 보입니다. 하지만 정확한 판단을 위해서는 동의대학교 식품공학과의 '다군 수능(일반학생전형)' 성적 산출방법을 확인하시기 바랍니다.
+더 자세한 정보를 얻으시려면, https://ipsi. deu. ac. kr/main. do 웹사이트를 참조하거나 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 화학환경공학부의 합격 가능성에 대한 정보를 제공하는 대신, 제공된 정보만으로는 정확한 판단이 어렵다고 언급하고 있습니다. 이는 원본 텍스트에서 제시된 합격 가능성이 높다는 결론과 상충합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 결론과 일치하지 않으며, 합격 가능성이 높다는 원본의 주장을 반박하는 내용이 포함되어 있습니다. 따라서 일관성이 낮습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 화학환경공학부의 합격 가능성에 대한 질문에 대한 답변을 제공하고 있으나, 원본 텍스트의 핵심 정보와 결론을 무시하고 있습니다. 그럼에도 불구하고 관련된 정보는 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 요인에 따라 합격 가능성이 달라질 수 있다는 점을 언급하지만, 원본 텍스트의 논리적 흐름과는 다소 동떨어져 있습니다. 따라서 일관된 구조가 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있으며, 합격 가능성이 높다는 원본의 주장을 부정하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 이로 인해 전체적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 주제와 결론을 무시하고 있어 의미적으로 완전히 일치하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원본 텍스트와의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.6753142398817885</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능 여부를 정확히 판단하기 어렵습니다. 동의대학교 화학환경공학부의 수능 일반학생전형 경쟁률과 평균 점수 등을 확인해야 합니다.
+화학환경공학부의 경우, 2024년도 모집단위별 지원 인원과 경쟁률을 통해 대략적인 합격 가능성을 예측할 수 있습니다. 하지만 이는 단순 예측일 뿐 실제 합격 가능성은 여러 요인에 따라 달라질 수 있습니다.
+제공된 정보를 바탕으로 추정해보면:
+- 화학환경공학부의 모집 인원과 지원 인원을 확인해야 합니다.
+- 해당 부의 경쟁률이 4.25라는 점수보다 높다면, 합격 가능성은 낮아질 것입니다.
+- 반대로 경쟁률이 낮다면, 합격 가능성은 높아질 수 있습니다.
+따라서 정확한 판단을 위해서는 동의대학교 화학환경공학부의 2024년도 모집 정보를 확인하시기 바랍니다. 더 자세한 정보나 지원에 대한 조언이 필요하다면, https://ipsi. deu. ac. kr/main. do 를 참조해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 4.2라는 점수에 대한 확실한 답변을 제공하지 않으며, 각 모집단위별 경쟁률과 평균 점수를 고려해야 한다고 언급하고 있습니다. 그러나 원본 텍스트에서 제공된 평균 성적 정보를 바탕으로 합격 가능성이 있다고 판단한 내용과는 다소 상충하는 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분도 있지만, 4.2라는 점수만으로는 확실한 답변을 드리기 어렵다고 하여 원본 텍스트의 긍정적인 해석과는 일치하지 않는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 영화학과의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있으며, 원본 텍스트의 주요 내용과 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 다소 약해지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 합격 가능성을 언급하고 있지만, 4.2라는 점수만으로는 확실한 예측이 어렵다고 하여 원본의 긍정적인 해석과는 다소 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성, 유창성, 일관성 등에서 좋은 점수를 받고 있습니다. 그러나 사실성과 정확성에서 다소 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있으며, 질문에 대한 적절한 답변을 제공하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 정보를 제공합니다. 다만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.6743170365836407</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.2라는 점수만으로는 확실한 답변을 드리기 어렵습니다. 각 모집단위별 경쟁률과 평균 점수가 중요합니다. 예를 들어, 영화학과가 인문사회과학대학에 속해 있다면, 해당 학과의 2024년도 지원자의 평균 성적을 확인해야 합니다.
+현재 제공된 정보로는 특정 단과대학이나 모집단위별 점수와 경쟁률이 명시되어 있지 않으므로 정확한 예측은 어렵습니다. 하지만 일반적으로 영화학과의 경우, 경쟁률이 높고 평균 성적이 상대적으로 높을 수 있습니다.
+따라서, 다음과 같은 정보를 확인하시면 도움이 될 것입니다:
+1. 해당 단과대학과 모집단위의 2024년도 지원자의 평균 점수와 경쟁률.
+2. 영화학과에 대한 입학사정관들의 평가 기준.
+더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트나 입학처에 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 더 많은 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차를 정확하게 나열하고 있으며, 추가적으로 "이 절차는 모든 면접에서 동일하게 적용되며, 개별면접 형태로 진행됩니다."라는 문장이 포함되어 있습니다. 이 문장은 사실일 가능성이 높지만, 원본 텍스트에는 명시되어 있지 않으므로 완전한 정확성은 아닙니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 면접 절차를 정확하게 전달하고 있습니다. 그러나 추가된 문장이 원본에 포함되어 있지 않기 때문에 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 면접 절차에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 흐름을 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 면접 절차에 대한 정보는 정확하지만, 추가된 문장이 원본 텍스트에 포함되어 있지 않기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 수행되고 있지만, 원본 텍스트와의 완전한 일치가 부족하여 점수가 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 추가된 문장이 원본의 맥락과 완전히 일치하지 않기 때문에 점수가 다소 낮습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.9171882138164822</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 모든 면접에서 동일하게 적용되며, 개별면접 형태로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
